--- a/Data Sets/Current-Economic-Indicators-2023-12.xlsx
+++ b/Data Sets/Current-Economic-Indicators-2023-12.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -38,7 +38,7 @@
     <definedName name="OBS" localSheetId="3">'dXdata - Annual'!$F$13:$I$46</definedName>
     <definedName name="OBS" localSheetId="2">'dXdata - Monthly'!$F$13:$CK$46</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,6 +49,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +61,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="265">
   <si>
+    <t>December 2023</t>
+  </si>
+  <si>
     <t>Current Economic Indicators</t>
+  </si>
+  <si>
+    <t>Updated by Corporate Economics on January 16, 2024</t>
   </si>
   <si>
     <t>Column1</t>
@@ -82,10 +91,16 @@
     <t>(%)</t>
   </si>
   <si>
+    <t>Unemployment Rate - Calgary Economic Region (CER) (%)†</t>
+  </si>
+  <si>
     <t>Canada; Unemployment rate</t>
   </si>
   <si>
     <t>per cent</t>
+  </si>
+  <si>
+    <t>Unemployment Rate - Canada (%)†</t>
   </si>
   <si>
     <t>Calgary, Alberta; Employment (Labour force, thousands of persons)</t>
@@ -94,10 +109,39 @@
     <t>thousands of persons</t>
   </si>
   <si>
+    <t>Employment - CER (Person  - 000s)†</t>
+  </si>
+  <si>
     <t>EI Beneficiaries - Alberta</t>
   </si>
   <si>
     <t>persons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Employment insurance Alberta - Number of recipients 
+(15 years and over), seasonally adjusted * </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note 1</t>
+    </r>
   </si>
   <si>
     <t>EI Beneficiaries - Alberta: PCTCHG</t>
@@ -106,13 +150,57 @@
     <t>% change</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">      Year-over-year % change</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note 1 </t>
+    </r>
+  </si>
+  <si>
     <t>EI Beneficiaries - Calgary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Employment insurance Calgary - Number of recipients 
+(15 years and over), seasonally adjusted *  </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note 1</t>
+    </r>
   </si>
   <si>
     <t>EI Beneficiaries - Calgary: PCTCHG</t>
   </si>
   <si>
     <t>City of Calgary: General Population - Estimate</t>
+  </si>
+  <si>
+    <t>City of Calgary Population Estimate (000s)††</t>
   </si>
   <si>
     <t>Energy</t>
@@ -130,6 +218,9 @@
     <t xml:space="preserve"> Alberta Natural Gas ;  from GLJ database</t>
   </si>
   <si>
+    <t>Alberta Natural Gas (Cdn$/GJ)****</t>
+  </si>
+  <si>
     <t>Prices</t>
   </si>
   <si>
@@ -139,7 +230,55 @@
     <t>C$/GJ</t>
   </si>
   <si>
+    <r>
+      <t>Inflation Rate - Calgary CMA</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  (y/y, %)</t>
+    </r>
+  </si>
+  <si>
     <t>Canada - Inflation Rate (12-month moving average)</t>
+  </si>
+  <si>
+    <r>
+      <t>Inflation Rate  - Canada</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (y/y, %)</t>
+    </r>
   </si>
   <si>
     <t>LFS - Average hourly wage rate change,Total employees,  all occupations; PCTCHG</t>
@@ -172,6 +311,9 @@
     <t>Canada  - Gross domestic product (GDP) at basic prices, by NAICS; Seasonally adjusted at annual rates, All industries: PCTCHG</t>
   </si>
   <si>
+    <t>Canada's Real GDP growth % (Chained 2012 dollar)***</t>
+  </si>
+  <si>
     <t>Prime Lending Rate - from Bank of Canada</t>
   </si>
   <si>
@@ -193,10 +335,40 @@
     <t>%</t>
   </si>
   <si>
+    <r>
+      <t>Retail Sales - Alberta, seasonally adjusted ($billions)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Note 3</t>
+    </r>
+  </si>
+  <si>
     <t>AB - Retail Sales - Seasonally Adjusted (x1000)</t>
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <r>
+      <t>Retail Sales - Calgary CER, seasonally adjusted ($billions)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Note 3</t>
+    </r>
   </si>
   <si>
     <t>Consumer confidence - Canada - from CBoC</t>
@@ -214,16 +386,82 @@
     <t>Units</t>
   </si>
   <si>
-    <t>#</t>
+    <t>Number of Personal Bankruptcies - Alberta***</t>
   </si>
   <si>
     <t xml:space="preserve">CALGARY CMA - Consumer  Bankruptcies </t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">City of Calgary Residential Unit Sales MLS </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note 4 </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> Calgary CMA Mthly Resident UNIT SALES, Actual</t>
   </si>
   <si>
+    <r>
+      <t>City of Calgary Residential Sales-to-New Listings Ratio MLS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Note 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>Calgary Monthly Residential Sales/New Listings Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>City of Calgary Residential Average Price MLS ($thousands)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Note 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>Business Indicators</t>
@@ -232,16 +470,91 @@
     <t>Calgary CMA Mnthly Resident AVG House  Price</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">  Wholesale Sales - Alberta, seasonally adjusted ($billions) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note 5</t>
+    </r>
+  </si>
+  <si>
     <t>Alberta - Wholesale trade, seasonally adjusted  (x1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manufacturing Sales - Alberta, seasonally adjusted ($billions)</t>
   </si>
   <si>
     <t xml:space="preserve"> # of business closures - Calgary </t>
   </si>
   <si>
+    <t xml:space="preserve">  Number of Business Bankruptcies - Alberta***</t>
+  </si>
+  <si>
     <t>CALGARY - Business Bankruptcies</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">  City of Calgary Total Value of Building Permits ($millions) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note 6</t>
+    </r>
+  </si>
+  <si>
+    <t>†  On January 30, 2023, Statistics Canada applied a standard revision to its Labour Force Survey estimates to ensure alignment with the most recently available population estimates, geographic boundaries, and occupation and industry classifications. As a result, some of these data are revised; Data collected are 3-month-moving average, seasonally unadjusted.</t>
+  </si>
+  <si>
+    <t>† † Taken from Civic Census (every April); The monthly data between Aprils are estimates only. There was no Civic Census in 2020, the April 2022 and April 2023 values were generated from our population model (also published in our Spring 2023 Calgary and Region Economic Outlook).</t>
+  </si>
+  <si>
+    <t>* In June 2019, employment insurance data have been reconstructed by Statistics Canada due to a historical revision.</t>
+  </si>
+  <si>
     <t>** Data include overtime and are based on gross taxable payroll before source deductions</t>
+  </si>
+  <si>
+    <t>*** Monthly data from Office of the Superintendent of Bankruptcy Canada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**** Data moved from using the “daily” weighted average of transacted prices to the “volume” weighted average of transacted prices for all physically delivered natural gas in a calendar month at the Alberta AB-NIT market </t>
+  </si>
+  <si>
+    <t>Note 1: The introduction of additional income support programs from March 2020 onwards has greatly affected Employment Insurance (EI) figures being reported. In particular, EI beneficiaries declined sharply in May 2020 as all new claims were redirected to the Canada Emergency Response Benefit (CERB). Following the conclusion of the CERB in September 2020, qualified recipients were transitioned to a newly expanded EI program that allows for easier access to EI benefits.</t>
+  </si>
+  <si>
+    <t>Note 2. Starting from January 2021, we are no longer providing the 12-month-moving averages for CPI except for end of year.</t>
+  </si>
+  <si>
+    <t>Note 3. As of the January 2023 reference period, Monthly Retail Trade Survey (MRTS) figures are now based on the North American Industry Classification System (NAICS) 2022 classification structure. This new classification structure has, in effect, broadened the scope of the MRTS results. Data has been revised from 2017 onward by Statistics Canada.</t>
+  </si>
+  <si>
+    <t>Note 4. City of Calgary residential data from CREB.</t>
+  </si>
+  <si>
+    <t>Note 5. The difference between February 2023 and March 2023 comes from the addition of petroleum products (NAICS code 412). In February 2023, oilseeds and grains (NAICS code 41112) were added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note 6. The total values of building permits were updated to reflect the data revision provided by Business Planning &amp; Performance Measurement, The City of Calgary as of January 8, 2024. </t>
+  </si>
+  <si>
+    <t>Sources: Statistics Canada, Conference Board of Canada, FRED, Government of Alberta, Office of the Superintendent of Bankruptcy Canada, Intercontinental Exchange Inc, City of Calgary, CREB, CMHC, Bank of Canada, and others</t>
+  </si>
+  <si>
+    <t>Sources: Statistics Canada, Conference Board of Canada, FRED, Government of Alberta, GLJ Publications Ltd., City of Calgary Civic Census, CREA, CREB, CMHC, Altus InSite, Bank of Canada, Corporate Economics</t>
   </si>
   <si>
     <t>dXdata</t>
@@ -250,31 +563,34 @@
     <t>retrieval form</t>
   </si>
   <si>
+    <t>Workfile:</t>
+  </si>
+  <si>
     <t>Frequency:</t>
+  </si>
+  <si>
+    <t>Any</t>
   </si>
   <si>
     <t>Observations:</t>
   </si>
   <si>
+    <t>From 01-Jan-2017</t>
+  </si>
+  <si>
+    <t>Data Table:</t>
+  </si>
+  <si>
+    <t>2018 current economic indicators (monthly)</t>
+  </si>
+  <si>
     <t>Identifiers:</t>
   </si>
   <si>
-    <t>retrieved series</t>
+    <t>s7es</t>
   </si>
   <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>Units:</t>
-  </si>
-  <si>
-    <t>Last modified:</t>
-  </si>
-  <si>
-    <t>Workfile:</t>
-  </si>
-  <si>
-    <t>Any</t>
+    <t>s526</t>
   </si>
   <si>
     <t>v91414039</t>
@@ -296,42 +612,6 @@
   </si>
   <si>
     <t>v86797120_PCTCHG</t>
-  </si>
-  <si>
-    <t>Calgary, Alberta; Unemployment rate</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Calgary, Alberta; Employment</t>
-  </si>
-  <si>
-    <t>* New-Alberta; Regular benefits; Both sexes; 15 years and over</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alberta; Regular benefits; Both sexes; 15 years and over: PCTCHG</t>
-  </si>
-  <si>
-    <t>Calgary, regular benefits</t>
-  </si>
-  <si>
-    <t>Calgary, Alberta; Regular benefits; Both sexes; 15 years and over; seasonally adjusted: PCTCHG</t>
-  </si>
-  <si>
-    <t>DATES</t>
-  </si>
-  <si>
-    <t>Data Table:</t>
-  </si>
-  <si>
-    <t>2018 current economic indicators (monthly)</t>
-  </si>
-  <si>
-    <t>s7es</t>
-  </si>
-  <si>
-    <t>s526</t>
   </si>
   <si>
     <t>v103534290R</t>
@@ -406,10 +686,43 @@
     <t>TOTVALCOC</t>
   </si>
   <si>
+    <t>retrieved series</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Last modified</t>
+  </si>
+  <si>
     <t>Calgary, Alberta; All-items Inflation</t>
   </si>
   <si>
+    <t>Monthly</t>
+  </si>
+  <si>
     <t>Canada; All-items Inflation</t>
+  </si>
+  <si>
+    <t>Calgary, Alberta; Unemployment rate</t>
+  </si>
+  <si>
+    <t>Calgary, Alberta; Employment</t>
+  </si>
+  <si>
+    <t>* New-Alberta; Regular benefits; Both sexes; 15 years and over</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alberta; Regular benefits; Both sexes; 15 years and over: PCTCHG</t>
+  </si>
+  <si>
+    <t>**Calgary, regular benefits</t>
+  </si>
+  <si>
+    <t>Calgary, Alberta; Regular benefits; Both sexes; 15 years and over; seasonally adjusted: PCTCHG</t>
   </si>
   <si>
     <t>Alberta; Average hourly wage rate; Total employees; Total employees, all occupations; Both sexes; 15 years and over: PCTCHG</t>
@@ -430,7 +743,10 @@
     <t>$US/barrel</t>
   </si>
   <si>
-    <t>Alberta Natural Gas (AECO C Price);  from GLJ database</t>
+    <t>Alberta Natural Gas Price from ICE</t>
+  </si>
+  <si>
+    <t>$C/GJ</t>
   </si>
   <si>
     <t>Calgary, Alberta; City's population estimates: / 1000</t>
@@ -469,13 +785,19 @@
     <t>Number of Cases</t>
   </si>
   <si>
-    <t>Calgary Monthly res. unit sales, actual ()</t>
+    <t>CIty of Calgary (CREB) All Types: Sales</t>
   </si>
   <si>
-    <t>Calgary Monthly res. average price, actual ()</t>
+    <t>units</t>
   </si>
   <si>
-    <t>Calgary Monthly res Sales/New Listings ratio</t>
+    <t>CIty of Calgary (CREB) All Types: Average Price</t>
+  </si>
+  <si>
+    <t>CIty of Calgary (CREB) All Types: Sales to New Listings Ratio %</t>
+  </si>
+  <si>
+    <t>ratio</t>
   </si>
   <si>
     <t>Wholesales: all trade groups; seasonally adjusted - from CANSIM: / 1e+09</t>
@@ -499,19 +821,7 @@
     <t>$000,000</t>
   </si>
   <si>
-    <t>From 01-Jan-2017</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Last modified</t>
-  </si>
-  <si>
-    <t>000 person</t>
+    <t>Last  4</t>
   </si>
   <si>
     <t>2018 Current Economic Indicators (Annual)</t>
@@ -565,6 +875,57 @@
     <t>s188</t>
   </si>
   <si>
+    <t>s152</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s50a</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>rsalealbA_/ 1e+06_ANNUAL</t>
+  </si>
+  <si>
+    <t>s142</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s98</t>
+  </si>
+  <si>
+    <t>s143</t>
+  </si>
+  <si>
+    <t>s113</t>
+  </si>
+  <si>
+    <t>s95</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s193</t>
+  </si>
+  <si>
+    <t>s194</t>
+  </si>
+  <si>
+    <t>s97</t>
+  </si>
+  <si>
+    <t>TOTVALCOC_ANNUAL</t>
+  </si>
+  <si>
     <t>Calgary: All-items: PCTCHG</t>
   </si>
   <si>
@@ -572,6 +933,9 @@
   </si>
   <si>
     <t>Canada: All-items: ANNUAL: PCTCHG</t>
+  </si>
+  <si>
+    <t>Calgary, Alberta; All Industries</t>
   </si>
   <si>
     <t>Canada; Unemployment rate: ANNUAL</t>
@@ -607,55 +971,10 @@
     <t>West Texas Intermediate ($US/barrel): from GLJ database: ANNUAL</t>
   </si>
   <si>
-    <t>Population Calgary: Download data (Civic Census): / 1000</t>
+    <t>Alberta Natural Gas Price from ICE - Annual</t>
   </si>
   <si>
-    <t>s152</t>
-  </si>
-  <si>
-    <t>s9</t>
-  </si>
-  <si>
-    <t>s50a</t>
-  </si>
-  <si>
-    <t>s21</t>
-  </si>
-  <si>
-    <t>rsalealbA_/ 1e+06_ANNUAL</t>
-  </si>
-  <si>
-    <t>s142</t>
-  </si>
-  <si>
-    <t>s16</t>
-  </si>
-  <si>
-    <t>s98</t>
-  </si>
-  <si>
-    <t>s143</t>
-  </si>
-  <si>
-    <t>s95</t>
-  </si>
-  <si>
-    <t>s22</t>
-  </si>
-  <si>
-    <t>s23</t>
-  </si>
-  <si>
-    <t>s193</t>
-  </si>
-  <si>
-    <t>s194</t>
-  </si>
-  <si>
-    <t>s97</t>
-  </si>
-  <si>
-    <t>TOTVALCOC_ANNUAL</t>
+    <t>Population Calgary: Download data (Civic Census): / 1000</t>
   </si>
   <si>
     <t>GDP, Canada; Seasonally adjusted at annual rates; Chained (2007) dollars; y-o-y % change: ANNUAL: PCTCHG</t>
@@ -679,6 +998,15 @@
     <t># of personal bankruptcies - Alberta; from Industry Canada: ANNUAL</t>
   </si>
   <si>
+    <t>CIty of Calgary (CREB) All Types: Sales: ANNUAL</t>
+  </si>
+  <si>
+    <t>: ANNUAL: / 1000</t>
+  </si>
+  <si>
+    <t>All Types: Sales to New Listings Ratio %: ANNUAL</t>
+  </si>
+  <si>
     <t>dimensionless</t>
   </si>
   <si>
@@ -700,359 +1028,34 @@
     <t>City of Calgary; Building Permits: Total Value: ANNUAL</t>
   </si>
   <si>
-    <t>s113</t>
+    <t>Calgary, regular benefits</t>
   </si>
   <si>
-    <t>Sources: Statistics Canada, Conference Board of Canada, FRED, Government of Alberta, GLJ Publications Ltd., City of Calgary Civic Census, CREA, CREB, CMHC, Altus InSite, Bank of Canada, Corporate Economics</t>
+    <t>Alberta Natural Gas (AECO C Price);  from GLJ database</t>
   </si>
   <si>
-    <t>Canada's Real GDP growth % (Chained 2012 dollar)***</t>
+    <t>Calgary Monthly res. unit sales, actual ()</t>
   </si>
   <si>
-    <t xml:space="preserve">  Manufacturing Sales - Alberta, seasonally adjusted ($billions)</t>
+    <t>Calgary Monthly res. average price, actual ()</t>
   </si>
   <si>
-    <t xml:space="preserve">  Number of Business Bankruptcies - Alberta***</t>
+    <t>Calgary Monthly res Sales/New Listings ratio</t>
   </si>
   <si>
-    <t>Calgary, Alberta; All Industries</t>
+    <t>000 person</t>
   </si>
   <si>
-    <t>**Calgary, regular benefits</t>
+    <t>DATES</t>
   </si>
   <si>
-    <t>* In June 2019, employment insurance data have been reconstructed by Statistics Canada due to a historical revision.</t>
+    <t>Description:</t>
   </si>
   <si>
-    <t>Number of Personal Bankruptcies - Alberta***</t>
+    <t>Units:</t>
   </si>
   <si>
-    <t>*** Monthly data from Office of the Superintendent of Bankruptcy Canada.</t>
-  </si>
-  <si>
-    <t>Alberta Natural Gas (Cdn$/GJ)****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**** Data moved from using the “daily” weighted average of transacted prices to the “volume” weighted average of transacted prices for all physically delivered natural gas in a calendar month at the Alberta AB-NIT market </t>
-  </si>
-  <si>
-    <t>Alberta Natural Gas Price from ICE</t>
-  </si>
-  <si>
-    <t>$C/GJ</t>
-  </si>
-  <si>
-    <t>Alberta Natural Gas Price from ICE - Annual</t>
-  </si>
-  <si>
-    <t>Note 1: The introduction of additional income support programs from March 2020 onwards has greatly affected Employment Insurance (EI) figures being reported. In particular, EI beneficiaries declined sharply in May 2020 as all new claims were redirected to the Canada Emergency Response Benefit (CERB). Following the conclusion of the CERB in September 2020, qualified recipients were transitioned to a newly expanded EI program that allows for easier access to EI benefits.</t>
-  </si>
-  <si>
-    <t>Unemployment Rate - Calgary Economic Region (CER) (%)†</t>
-  </si>
-  <si>
-    <t>Employment - CER (Person  - 000s)†</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Employment insurance Alberta - Number of recipients 
-(15 years and over), seasonally adjusted * </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      Year-over-year % change</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Note 1 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Employment insurance Calgary - Number of recipients 
-(15 years and over), seasonally adjusted *  </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 1</t>
-    </r>
-  </si>
-  <si>
-    <t>City of Calgary Population Estimate (000s)††</t>
-  </si>
-  <si>
-    <r>
-      <t>Inflation Rate  - Canada</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (y/y, %)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inflation Rate - Calgary CMA</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (y/y, %)</t>
-    </r>
-  </si>
-  <si>
-    <t>Note 2. Starting from January 2021, we are no longer providing the 12-month-moving averages for CPI except for end of year.</t>
-  </si>
-  <si>
-    <t>CIty of Calgary (CREB) All Types: Sales: ANNUAL</t>
-  </si>
-  <si>
-    <t>: ANNUAL: / 1000</t>
-  </si>
-  <si>
-    <t>All Types: Sales to New Listings Ratio %: ANNUAL</t>
-  </si>
-  <si>
-    <t>CIty of Calgary (CREB) All Types: Sales</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>CIty of Calgary (CREB) All Types: Average Price</t>
-  </si>
-  <si>
-    <t>CIty of Calgary (CREB) All Types: Sales to New Listings Ratio %</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>Sources: Statistics Canada, Conference Board of Canada, FRED, Government of Alberta, Office of the Superintendent of Bankruptcy Canada, Intercontinental Exchange Inc, City of Calgary, CREB, CMHC, Bank of Canada, and others</t>
-  </si>
-  <si>
-    <t>Unemployment Rate - Canada (%)†</t>
-  </si>
-  <si>
-    <t>Last  4</t>
-  </si>
-  <si>
-    <t>†  On January 30, 2023, Statistics Canada applied a standard revision to its Labour Force Survey estimates to ensure alignment with the most recently available population estimates, geographic boundaries, and occupation and industry classifications. As a result, some of these data are revised; Data collected are 3-month-moving average, seasonally unadjusted.</t>
-  </si>
-  <si>
-    <r>
-      <t>Retail Sales - Alberta, seasonally adjusted ($billions)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Note 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Retail Sales - Calgary CER, seasonally adjusted ($billions)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Note 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>City of Calgary Residential Sales-to-New Listings Ratio MLS</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Note 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">City of Calgary Residential Unit Sales MLS </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Note 4 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>City of Calgary Residential Average Price MLS ($thousands)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Note 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Note 4. City of Calgary residential data from CREB.</t>
-  </si>
-  <si>
-    <t>Note 3. As of the January 2023 reference period, Monthly Retail Trade Survey (MRTS) figures are now based on the North American Industry Classification System (NAICS) 2022 classification structure. This new classification structure has, in effect, broadened the scope of the MRTS results. Data has been revised from 2017 onward by Statistics Canada.</t>
-  </si>
-  <si>
-    <t>† † Taken from Civic Census (every April); The monthly data between Aprils are estimates only. There was no Civic Census in 2020, the April 2022 and April 2023 values were generated from our population model (also published in our Spring 2023 Calgary and Region Economic Outlook).</t>
-  </si>
-  <si>
-    <t>Note 5. The difference between February 2023 and March 2023 comes from the addition of petroleum products (NAICS code 412). In February 2023, oilseeds and grains (NAICS code 41112) were added.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  Wholesale Sales - Alberta, seasonally adjusted ($billions) </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  City of Calgary Total Value of Building Permits ($millions) </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 6</t>
-    </r>
-  </si>
-  <si>
-    <t>December 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note 6. The total values of building permits were updated to reflect the data revision provided by Business Planning &amp; Performance Measurement, The City of Calgary as of January 8, 2024. </t>
-  </si>
-  <si>
-    <t>Updated by Corporate Economics on January 16, 2024</t>
+    <t>Last modified:</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
     <numFmt numFmtId="172" formatCode="mmm"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,13 +1288,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2218,7 +2214,7 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2323,7 +2319,7 @@
     <xf numFmtId="167" fontId="27" fillId="9" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2332,10 +2328,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2362,7 +2358,7 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3470,26 +3466,26 @@
       <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1"/>
   <cols>
     <col min="1" max="1" width="5" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="10" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="11" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="11" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" style="12" customWidth="1"/>
-    <col min="6" max="8" width="7.5" style="105" customWidth="1"/>
-    <col min="9" max="32" width="7.83203125" style="105" customWidth="1"/>
-    <col min="33" max="70" width="9.1640625" style="13" customWidth="1"/>
-    <col min="71" max="16384" width="9.1640625" style="13"/>
+    <col min="5" max="5" width="62.7109375" style="12" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" style="105" customWidth="1"/>
+    <col min="9" max="32" width="7.85546875" style="105" customWidth="1"/>
+    <col min="33" max="70" width="9.140625" style="13" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="27" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="166" t="s">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F1" s="91"/>
       <c r="G1" s="91"/>
@@ -3520,13 +3516,13 @@
       <c r="AF1" s="91"/>
       <c r="AG1" s="8"/>
     </row>
-    <row r="2" spans="1:33" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="33.75" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="50" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="91"/>
       <c r="G2" s="91"/>
@@ -3555,23 +3551,23 @@
       <c r="AD2" s="149"/>
       <c r="AE2" s="149"/>
       <c r="AF2" s="149" t="s">
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:33" s="238" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="238" customFormat="1" ht="12.95" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="167">
         <v>2021</v>
@@ -3656,15 +3652,15 @@
       </c>
       <c r="AG3" s="51"/>
     </row>
-    <row r="4" spans="1:33" s="239" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="239" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="53"/>
       <c r="B4" s="54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="56"/>
       <c r="E4" s="246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="247"/>
       <c r="G4" s="247"/>
@@ -3695,19 +3691,19 @@
       <c r="AF4" s="250"/>
       <c r="AG4" s="57"/>
     </row>
-    <row r="5" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="106">
         <v>1</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="118" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="F5" s="110">
         <f>'dXdata - Annual'!G16/100</f>
@@ -3819,19 +3815,19 @@
       </c>
       <c r="AG5" s="57"/>
     </row>
-    <row r="6" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="59">
         <v>2</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="74" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="F6" s="93">
         <f>'dXdata - Annual'!G17/100</f>
@@ -3943,19 +3939,19 @@
       </c>
       <c r="AG6" s="57"/>
     </row>
-    <row r="7" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="106">
         <v>3</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="109"/>
       <c r="E7" s="118" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="F7" s="113">
         <f>'dXdata - Annual'!G18</f>
@@ -4067,19 +4063,19 @@
       </c>
       <c r="AG7" s="57"/>
     </row>
-    <row r="8" spans="1:33" s="240" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" s="240" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="59">
         <v>4</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="74" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="F8" s="96">
         <f>'dXdata - Annual'!G19</f>
@@ -4191,19 +4187,19 @@
       </c>
       <c r="AG8" s="65"/>
     </row>
-    <row r="9" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="106">
         <v>5</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="118" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="F9" s="110">
         <f>'dXdata - Annual'!G20/100</f>
@@ -4315,19 +4311,19 @@
       </c>
       <c r="AG9" s="57"/>
     </row>
-    <row r="10" spans="1:33" s="239" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" s="239" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="59">
         <v>6</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="74" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="F10" s="96">
         <f>'dXdata - Annual'!G21</f>
@@ -4439,19 +4435,19 @@
       </c>
       <c r="AG10" s="57"/>
     </row>
-    <row r="11" spans="1:33" s="241" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" s="241" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="106">
         <v>7</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11" s="109"/>
       <c r="E11" s="118" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="F11" s="110">
         <f>'dXdata - Annual'!G22/100</f>
@@ -4563,19 +4559,19 @@
       </c>
       <c r="AG11" s="66"/>
     </row>
-    <row r="12" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A12" s="59">
         <v>8</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="194" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="F12" s="97">
         <f>'dXdata - Annual'!G29</f>
@@ -4687,15 +4683,15 @@
       </c>
       <c r="AG12" s="57"/>
     </row>
-    <row r="13" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" s="58"/>
       <c r="B13" s="54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
       <c r="E13" s="251" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F13" s="252"/>
       <c r="G13" s="252"/>
@@ -4726,19 +4722,19 @@
       <c r="AF13" s="255"/>
       <c r="AG13" s="57"/>
     </row>
-    <row r="14" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="106">
         <v>10</v>
       </c>
       <c r="B14" s="116" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" s="109"/>
       <c r="E14" s="118" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F14" s="199">
         <f>'dXdata - Annual'!G27</f>
@@ -4850,19 +4846,19 @@
       </c>
       <c r="AG14" s="57"/>
     </row>
-    <row r="15" spans="1:33" s="242" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="242" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A15" s="59">
         <v>12</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="74" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="F15" s="200">
         <f>'dXdata - Annual'!G28</f>
@@ -4974,15 +4970,15 @@
       </c>
       <c r="AG15" s="72"/>
     </row>
-    <row r="16" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="58"/>
       <c r="B16" s="54" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="251" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F16" s="252"/>
       <c r="G16" s="252"/>
@@ -5013,19 +5009,19 @@
       <c r="AF16" s="255"/>
       <c r="AG16" s="57"/>
     </row>
-    <row r="17" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="106">
         <v>14</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="169" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="F17" s="119">
         <f>'dXdata - Annual'!G14/100</f>
@@ -5137,19 +5133,19 @@
       </c>
       <c r="AG17" s="57"/>
     </row>
-    <row r="18" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="59">
         <v>15</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="168" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="F18" s="98">
         <f>'dXdata - Annual'!G15/100</f>
@@ -5261,19 +5257,19 @@
       </c>
       <c r="AG18" s="57"/>
     </row>
-    <row r="19" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="106">
         <v>16</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C19" s="108" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19" s="109"/>
       <c r="E19" s="169" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F19" s="119">
         <f>'dXdata - Annual'!G23/100</f>
@@ -5385,19 +5381,19 @@
       </c>
       <c r="AG19" s="57"/>
     </row>
-    <row r="20" spans="1:33" s="239" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" s="239" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="59">
         <v>17</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="168" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F20" s="98">
         <f>'dXdata - Annual'!G24/100</f>
@@ -5509,17 +5505,17 @@
       </c>
       <c r="AG20" s="57"/>
     </row>
-    <row r="21" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="106">
         <v>18</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C21" s="108"/>
       <c r="D21" s="109"/>
       <c r="E21" s="169" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F21" s="119">
         <f>'dXdata - Annual'!G25/100</f>
@@ -5631,17 +5627,17 @@
       </c>
       <c r="AG21" s="57"/>
     </row>
-    <row r="22" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="59">
         <v>19</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="71"/>
       <c r="E22" s="170" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F22" s="99">
         <f>'dXdata - Annual'!G26/100</f>
@@ -5753,15 +5749,15 @@
       </c>
       <c r="AG22" s="57"/>
     </row>
-    <row r="23" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="58"/>
       <c r="B23" s="54" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="56"/>
       <c r="E23" s="251" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F23" s="252"/>
       <c r="G23" s="252"/>
@@ -5792,19 +5788,19 @@
       <c r="AF23" s="255"/>
       <c r="AG23" s="57"/>
     </row>
-    <row r="24" spans="1:33" s="242" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" s="242" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="106">
         <v>21</v>
       </c>
       <c r="B24" s="117" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D24" s="109"/>
       <c r="E24" s="118" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="F24" s="110">
         <f>'dXdata - Annual'!G30/100</f>
@@ -5916,19 +5912,19 @@
       </c>
       <c r="AG24" s="72"/>
     </row>
-    <row r="25" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="59">
         <v>22</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="74" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F25" s="161">
         <f>'dXdata - Annual'!G31/100</f>
@@ -6040,17 +6036,17 @@
       </c>
       <c r="AG25" s="57"/>
     </row>
-    <row r="26" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="106">
         <v>23</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C26" s="121"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F26" s="132">
         <f>'dXdata - Annual'!G32/100</f>
@@ -6162,15 +6158,15 @@
       </c>
       <c r="AG26" s="57"/>
     </row>
-    <row r="27" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A27" s="58"/>
       <c r="B27" s="54" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
       <c r="E27" s="251" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F27" s="252"/>
       <c r="G27" s="252"/>
@@ -6201,19 +6197,19 @@
       <c r="AF27" s="255"/>
       <c r="AG27" s="57"/>
     </row>
-    <row r="28" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="106">
         <v>25</v>
       </c>
       <c r="B28" s="117" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D28" s="109"/>
       <c r="E28" s="118" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="F28" s="113">
         <f>'dXdata - Annual'!G33</f>
@@ -6325,19 +6321,19 @@
       </c>
       <c r="AG28" s="57"/>
     </row>
-    <row r="29" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="59">
         <v>26</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="74" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="F29" s="102">
         <f>'dXdata - Annual'!G34</f>
@@ -6449,19 +6445,19 @@
       </c>
       <c r="AG29" s="57"/>
     </row>
-    <row r="30" spans="1:33" s="243" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" s="243" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="106">
         <v>28</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C30" s="108" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D30" s="109"/>
       <c r="E30" s="187" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F30" s="128">
         <f>'dXdata - Annual'!G36</f>
@@ -6573,19 +6569,19 @@
       </c>
       <c r="AG30" s="188"/>
     </row>
-    <row r="31" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="59">
         <v>29</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="74" t="s">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="F31" s="96">
         <f>'dXdata - Annual'!G37</f>
@@ -6697,19 +6693,19 @@
       </c>
       <c r="AG31" s="57"/>
     </row>
-    <row r="32" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="106">
         <v>31</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C32" s="108" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D32" s="109"/>
       <c r="E32" s="118" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="F32" s="128">
         <f>'dXdata - Annual'!G38</f>
@@ -6821,19 +6817,19 @@
       </c>
       <c r="AG32" s="57"/>
     </row>
-    <row r="33" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="59">
         <v>32</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="74" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="F33" s="190">
         <f>'dXdata - Annual'!G40</f>
@@ -6945,19 +6941,19 @@
       </c>
       <c r="AG33" s="57"/>
     </row>
-    <row r="34" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="106">
         <v>33</v>
       </c>
       <c r="B34" s="120" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C34" s="108" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D34" s="122"/>
       <c r="E34" s="123" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="F34" s="150">
         <f>'dXdata - Annual'!G39</f>
@@ -7069,15 +7065,15 @@
       </c>
       <c r="AG34" s="57"/>
     </row>
-    <row r="35" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" s="239" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="106"/>
       <c r="B35" s="154" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C35" s="155"/>
       <c r="D35" s="156"/>
       <c r="E35" s="256" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F35" s="257"/>
       <c r="G35" s="257"/>
@@ -7108,19 +7104,19 @@
       <c r="AF35" s="259"/>
       <c r="AG35" s="57"/>
     </row>
-    <row r="36" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="77">
         <v>35</v>
       </c>
       <c r="B36" s="159" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C36" s="159" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D36" s="160"/>
       <c r="E36" s="79" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="F36" s="190">
         <f>'dXdata - Annual'!G41</f>
@@ -7232,19 +7228,19 @@
       </c>
       <c r="AG36" s="76"/>
     </row>
-    <row r="37" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="76">
         <v>36</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D37" s="130"/>
       <c r="E37" s="131" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="F37" s="126">
         <f>'dXdata - Annual'!G42</f>
@@ -7356,19 +7352,19 @@
       </c>
       <c r="AG37" s="76"/>
     </row>
-    <row r="38" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="77">
         <v>39</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="79" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="F38" s="96">
         <f>'dXdata - Annual'!G45</f>
@@ -7480,19 +7476,19 @@
       </c>
       <c r="AG38" s="76"/>
     </row>
-    <row r="39" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" s="244" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="76">
         <v>41</v>
       </c>
       <c r="B39" s="157" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C39" s="157" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D39" s="158"/>
       <c r="E39" s="158" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="F39" s="150">
         <f>'dXdata - Annual'!G46</f>
@@ -7604,13 +7600,13 @@
       </c>
       <c r="AG39" s="76"/>
     </row>
-    <row r="40" spans="1:33" s="238" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" s="238" customFormat="1" ht="27.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="231"/>
       <c r="C40" s="232"/>
       <c r="D40" s="232"/>
       <c r="E40" s="260" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="F40" s="260"/>
       <c r="G40" s="260"/>
@@ -7641,13 +7637,13 @@
       <c r="AF40" s="260"/>
       <c r="AG40" s="51"/>
     </row>
-    <row r="41" spans="1:33" s="238" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" s="238" customFormat="1" ht="12.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="231"/>
       <c r="C41" s="232"/>
       <c r="D41" s="232"/>
       <c r="E41" s="51" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
@@ -7678,13 +7674,13 @@
       <c r="AF41" s="92"/>
       <c r="AG41" s="51"/>
     </row>
-    <row r="42" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" s="238" customFormat="1">
       <c r="A42" s="4"/>
       <c r="B42" s="231"/>
       <c r="C42" s="232"/>
       <c r="D42" s="232"/>
       <c r="E42" s="51" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
@@ -7715,13 +7711,13 @@
       <c r="AF42" s="92"/>
       <c r="AG42" s="51"/>
     </row>
-    <row r="43" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" s="238" customFormat="1">
       <c r="A43" s="4"/>
       <c r="B43" s="231"/>
       <c r="C43" s="232"/>
       <c r="D43" s="232"/>
       <c r="E43" s="51" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="92"/>
@@ -7752,13 +7748,13 @@
       <c r="AF43" s="92"/>
       <c r="AG43" s="51"/>
     </row>
-    <row r="44" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" s="238" customFormat="1">
       <c r="A44" s="4"/>
       <c r="B44" s="231"/>
       <c r="C44" s="232"/>
       <c r="D44" s="232"/>
       <c r="E44" s="233" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="F44" s="234"/>
       <c r="G44" s="234"/>
@@ -7789,13 +7785,13 @@
       <c r="AF44" s="92"/>
       <c r="AG44" s="51"/>
     </row>
-    <row r="45" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" s="238" customFormat="1">
       <c r="A45" s="4"/>
       <c r="B45" s="231"/>
       <c r="C45" s="232"/>
       <c r="D45" s="232"/>
       <c r="E45" s="233" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="F45" s="234"/>
       <c r="G45" s="234"/>
@@ -7826,13 +7822,13 @@
       <c r="AF45" s="92"/>
       <c r="AG45" s="51"/>
     </row>
-    <row r="46" spans="1:33" s="238" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" s="238" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="231"/>
       <c r="C46" s="232"/>
       <c r="D46" s="232"/>
       <c r="E46" s="245" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="F46" s="245"/>
       <c r="G46" s="245"/>
@@ -7863,13 +7859,13 @@
       <c r="AF46" s="245"/>
       <c r="AG46" s="51"/>
     </row>
-    <row r="47" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" s="238" customFormat="1">
       <c r="A47" s="4"/>
       <c r="B47" s="231"/>
       <c r="C47" s="232"/>
       <c r="D47" s="232"/>
       <c r="E47" s="245" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="F47" s="245"/>
       <c r="G47" s="245"/>
@@ -7900,13 +7896,13 @@
       <c r="AF47" s="195"/>
       <c r="AG47" s="51"/>
     </row>
-    <row r="48" spans="1:33" s="238" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" s="238" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="231"/>
       <c r="C48" s="232"/>
       <c r="D48" s="232"/>
       <c r="E48" s="245" t="s">
-        <v>257</v>
+        <v>92</v>
       </c>
       <c r="F48" s="245"/>
       <c r="G48" s="245"/>
@@ -7937,13 +7933,13 @@
       <c r="AF48" s="245"/>
       <c r="AG48" s="51"/>
     </row>
-    <row r="49" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" s="238" customFormat="1">
       <c r="A49" s="4"/>
       <c r="B49" s="231"/>
       <c r="C49" s="232"/>
       <c r="D49" s="232"/>
       <c r="E49" s="245" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="F49" s="245"/>
       <c r="G49" s="245"/>
@@ -7974,13 +7970,13 @@
       <c r="AF49" s="195"/>
       <c r="AG49" s="51"/>
     </row>
-    <row r="50" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" s="238" customFormat="1">
       <c r="A50" s="4"/>
       <c r="B50" s="231"/>
       <c r="C50" s="232"/>
       <c r="D50" s="232"/>
       <c r="E50" s="245" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="F50" s="245"/>
       <c r="G50" s="245"/>
@@ -8011,13 +8007,13 @@
       <c r="AF50" s="245"/>
       <c r="AG50" s="51"/>
     </row>
-    <row r="51" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" s="238" customFormat="1">
       <c r="A51" s="4"/>
       <c r="B51" s="231"/>
       <c r="C51" s="232"/>
       <c r="D51" s="232"/>
       <c r="E51" s="245" t="s">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="F51" s="245"/>
       <c r="G51" s="245"/>
@@ -8048,13 +8044,13 @@
       <c r="AF51" s="245"/>
       <c r="AG51" s="51"/>
     </row>
-    <row r="52" spans="1:33" s="238" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" s="238" customFormat="1">
       <c r="A52" s="4"/>
       <c r="B52" s="231"/>
       <c r="C52" s="232"/>
       <c r="D52" s="232"/>
       <c r="E52" s="51" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="F52" s="92"/>
       <c r="G52" s="92"/>
@@ -8085,7 +8081,7 @@
       <c r="AF52" s="92"/>
       <c r="AG52" s="51"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:33">
       <c r="E59" s="13"/>
     </row>
   </sheetData>
@@ -8123,21 +8119,21 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="134" customWidth="1"/>
-    <col min="2" max="26" width="10.6640625" style="134" customWidth="1"/>
-    <col min="27" max="27" width="6.6640625" style="134" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" style="134" customWidth="1"/>
-    <col min="29" max="29" width="4.1640625" style="134" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="134" customWidth="1"/>
+    <col min="2" max="26" width="10.7109375" style="134" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="134" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" style="134" customWidth="1"/>
+    <col min="29" max="29" width="4.140625" style="134" customWidth="1"/>
     <col min="30" max="128" width="0" style="136" hidden="1" customWidth="1"/>
-    <col min="129" max="16384" width="10.6640625" style="134" hidden="1"/>
+    <col min="129" max="16384" width="10.7109375" style="134" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:128" ht="33.950000000000003">
       <c r="A1" s="261" t="str">
         <f ca="1">TEXT(TODAY()-30,"MMMM yyyy")</f>
-        <v>December 2023</v>
+        <v>January 2024</v>
       </c>
       <c r="B1" s="261"/>
       <c r="C1" s="261"/>
@@ -8148,14 +8144,14 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:128" ht="62" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:128" ht="62.1">
       <c r="A2" s="137" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:128" s="140" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:128" s="140" customFormat="1" ht="36.950000000000003">
       <c r="A3" s="138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="139"/>
       <c r="C3" s="139"/>
@@ -8282,73 +8278,73 @@
       <c r="DW3" s="136"/>
       <c r="DX3" s="136"/>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="17" x14ac:dyDescent="0.2"/>
-    <row r="18" x14ac:dyDescent="0.2"/>
-    <row r="19" x14ac:dyDescent="0.2"/>
-    <row r="20" x14ac:dyDescent="0.2"/>
-    <row r="21" x14ac:dyDescent="0.2"/>
-    <row r="22" x14ac:dyDescent="0.2"/>
-    <row r="23" x14ac:dyDescent="0.2"/>
-    <row r="24" x14ac:dyDescent="0.2"/>
-    <row r="25" x14ac:dyDescent="0.2"/>
-    <row r="26" x14ac:dyDescent="0.2"/>
-    <row r="27" x14ac:dyDescent="0.2"/>
-    <row r="28" x14ac:dyDescent="0.2"/>
-    <row r="29" x14ac:dyDescent="0.2"/>
-    <row r="30" x14ac:dyDescent="0.2"/>
-    <row r="31" x14ac:dyDescent="0.2"/>
-    <row r="32" x14ac:dyDescent="0.2"/>
-    <row r="33" x14ac:dyDescent="0.2"/>
-    <row r="34" x14ac:dyDescent="0.2"/>
-    <row r="35" x14ac:dyDescent="0.2"/>
-    <row r="36" x14ac:dyDescent="0.2"/>
-    <row r="37" x14ac:dyDescent="0.2"/>
-    <row r="38" x14ac:dyDescent="0.2"/>
-    <row r="39" x14ac:dyDescent="0.2"/>
-    <row r="40" x14ac:dyDescent="0.2"/>
-    <row r="41" x14ac:dyDescent="0.2"/>
-    <row r="42" x14ac:dyDescent="0.2"/>
-    <row r="43" x14ac:dyDescent="0.2"/>
-    <row r="44" x14ac:dyDescent="0.2"/>
-    <row r="45" x14ac:dyDescent="0.2"/>
-    <row r="46" x14ac:dyDescent="0.2"/>
-    <row r="47" x14ac:dyDescent="0.2"/>
-    <row r="48" x14ac:dyDescent="0.2"/>
-    <row r="49" x14ac:dyDescent="0.2"/>
-    <row r="50" x14ac:dyDescent="0.2"/>
-    <row r="51" x14ac:dyDescent="0.2"/>
-    <row r="52" x14ac:dyDescent="0.2"/>
-    <row r="53" x14ac:dyDescent="0.2"/>
-    <row r="54" x14ac:dyDescent="0.2"/>
-    <row r="55" x14ac:dyDescent="0.2"/>
-    <row r="56" x14ac:dyDescent="0.2"/>
-    <row r="57" x14ac:dyDescent="0.2"/>
-    <row r="58" x14ac:dyDescent="0.2"/>
-    <row r="59" x14ac:dyDescent="0.2"/>
-    <row r="60" x14ac:dyDescent="0.2"/>
-    <row r="61" x14ac:dyDescent="0.2"/>
-    <row r="62" x14ac:dyDescent="0.2"/>
-    <row r="63" x14ac:dyDescent="0.2"/>
-    <row r="64" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:128" s="140" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:128"/>
+    <row r="5" spans="1:128"/>
+    <row r="6" spans="1:128"/>
+    <row r="7" spans="1:128"/>
+    <row r="8" spans="1:128"/>
+    <row r="9" spans="1:128"/>
+    <row r="10" spans="1:128"/>
+    <row r="11" spans="1:128"/>
+    <row r="12" spans="1:128"/>
+    <row r="13" spans="1:128"/>
+    <row r="14" spans="1:128"/>
+    <row r="15" spans="1:128"/>
+    <row r="16" spans="1:128"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65" spans="1:128"/>
+    <row r="66" spans="1:128"/>
+    <row r="67" spans="1:128"/>
+    <row r="68" spans="1:128" s="140" customFormat="1" ht="36.950000000000003">
       <c r="A68" s="138" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B68" s="139"/>
       <c r="C68" s="139"/>
@@ -8475,52 +8471,52 @@
       <c r="DW68" s="136"/>
       <c r="DX68" s="136"/>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="81" x14ac:dyDescent="0.2"/>
-    <row r="82" x14ac:dyDescent="0.2"/>
-    <row r="83" x14ac:dyDescent="0.2"/>
-    <row r="84" x14ac:dyDescent="0.2"/>
-    <row r="85" x14ac:dyDescent="0.2"/>
-    <row r="86" x14ac:dyDescent="0.2"/>
-    <row r="87" x14ac:dyDescent="0.2"/>
-    <row r="88" x14ac:dyDescent="0.2"/>
-    <row r="89" x14ac:dyDescent="0.2"/>
-    <row r="90" x14ac:dyDescent="0.2"/>
-    <row r="91" x14ac:dyDescent="0.2"/>
-    <row r="92" x14ac:dyDescent="0.2"/>
-    <row r="93" x14ac:dyDescent="0.2"/>
-    <row r="94" x14ac:dyDescent="0.2"/>
-    <row r="95" x14ac:dyDescent="0.2"/>
-    <row r="96" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:128" s="140" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:128"/>
+    <row r="70" spans="1:128"/>
+    <row r="71" spans="1:128"/>
+    <row r="72" spans="1:128"/>
+    <row r="73" spans="1:128"/>
+    <row r="74" spans="1:128"/>
+    <row r="75" spans="1:128"/>
+    <row r="76" spans="1:128"/>
+    <row r="77" spans="1:128"/>
+    <row r="78" spans="1:128"/>
+    <row r="79" spans="1:128"/>
+    <row r="80" spans="1:128"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97" spans="1:128"/>
+    <row r="98" spans="1:128"/>
+    <row r="99" spans="1:128"/>
+    <row r="100" spans="1:128"/>
+    <row r="101" spans="1:128"/>
+    <row r="102" spans="1:128"/>
+    <row r="103" spans="1:128"/>
+    <row r="104" spans="1:128"/>
+    <row r="105" spans="1:128"/>
+    <row r="106" spans="1:128"/>
+    <row r="107" spans="1:128"/>
+    <row r="108" spans="1:128"/>
+    <row r="109" spans="1:128"/>
+    <row r="110" spans="1:128"/>
+    <row r="111" spans="1:128"/>
+    <row r="112" spans="1:128" s="140" customFormat="1" ht="36.950000000000003">
       <c r="A112" s="138" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B112" s="139"/>
       <c r="C112" s="139"/>
@@ -8647,53 +8643,53 @@
       <c r="DW112" s="136"/>
       <c r="DX112" s="136"/>
     </row>
-    <row r="113" x14ac:dyDescent="0.2"/>
-    <row r="114" x14ac:dyDescent="0.2"/>
-    <row r="115" x14ac:dyDescent="0.2"/>
-    <row r="116" x14ac:dyDescent="0.2"/>
-    <row r="117" x14ac:dyDescent="0.2"/>
-    <row r="118" x14ac:dyDescent="0.2"/>
-    <row r="119" x14ac:dyDescent="0.2"/>
-    <row r="120" x14ac:dyDescent="0.2"/>
-    <row r="121" x14ac:dyDescent="0.2"/>
-    <row r="122" x14ac:dyDescent="0.2"/>
-    <row r="123" x14ac:dyDescent="0.2"/>
-    <row r="124" x14ac:dyDescent="0.2"/>
-    <row r="125" x14ac:dyDescent="0.2"/>
-    <row r="126" x14ac:dyDescent="0.2"/>
-    <row r="127" x14ac:dyDescent="0.2"/>
-    <row r="128" x14ac:dyDescent="0.2"/>
-    <row r="129" x14ac:dyDescent="0.2"/>
-    <row r="130" x14ac:dyDescent="0.2"/>
-    <row r="131" x14ac:dyDescent="0.2"/>
-    <row r="132" x14ac:dyDescent="0.2"/>
-    <row r="133" x14ac:dyDescent="0.2"/>
-    <row r="134" x14ac:dyDescent="0.2"/>
-    <row r="135" x14ac:dyDescent="0.2"/>
-    <row r="136" x14ac:dyDescent="0.2"/>
-    <row r="137" x14ac:dyDescent="0.2"/>
-    <row r="138" x14ac:dyDescent="0.2"/>
-    <row r="139" x14ac:dyDescent="0.2"/>
-    <row r="140" x14ac:dyDescent="0.2"/>
-    <row r="141" x14ac:dyDescent="0.2"/>
-    <row r="142" x14ac:dyDescent="0.2"/>
-    <row r="143" x14ac:dyDescent="0.2"/>
-    <row r="144" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="147" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:128" s="140" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145" spans="1:128"/>
+    <row r="146" spans="1:128"/>
+    <row r="147" spans="1:128"/>
+    <row r="148" spans="1:128"/>
+    <row r="149" spans="1:128"/>
+    <row r="150" spans="1:128"/>
+    <row r="151" spans="1:128"/>
+    <row r="152" spans="1:128"/>
+    <row r="153" spans="1:128"/>
+    <row r="154" spans="1:128"/>
+    <row r="155" spans="1:128"/>
+    <row r="156" spans="1:128"/>
+    <row r="157" spans="1:128" s="140" customFormat="1" ht="36.950000000000003">
       <c r="A157" s="138" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B157" s="139"/>
       <c r="C157" s="139"/>
@@ -8820,51 +8816,51 @@
       <c r="DW157" s="136"/>
       <c r="DX157" s="136"/>
     </row>
-    <row r="158" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="161" x14ac:dyDescent="0.2"/>
-    <row r="162" x14ac:dyDescent="0.2"/>
-    <row r="163" x14ac:dyDescent="0.2"/>
-    <row r="164" x14ac:dyDescent="0.2"/>
-    <row r="165" x14ac:dyDescent="0.2"/>
-    <row r="166" x14ac:dyDescent="0.2"/>
-    <row r="167" x14ac:dyDescent="0.2"/>
-    <row r="168" x14ac:dyDescent="0.2"/>
-    <row r="169" x14ac:dyDescent="0.2"/>
-    <row r="170" x14ac:dyDescent="0.2"/>
-    <row r="171" x14ac:dyDescent="0.2"/>
-    <row r="172" x14ac:dyDescent="0.2"/>
-    <row r="173" x14ac:dyDescent="0.2"/>
-    <row r="174" x14ac:dyDescent="0.2"/>
-    <row r="175" x14ac:dyDescent="0.2"/>
-    <row r="176" x14ac:dyDescent="0.2"/>
-    <row r="177" x14ac:dyDescent="0.2"/>
-    <row r="178" x14ac:dyDescent="0.2"/>
-    <row r="179" x14ac:dyDescent="0.2"/>
-    <row r="180" x14ac:dyDescent="0.2"/>
-    <row r="181" x14ac:dyDescent="0.2"/>
-    <row r="182" x14ac:dyDescent="0.2"/>
-    <row r="183" x14ac:dyDescent="0.2"/>
-    <row r="184" x14ac:dyDescent="0.2"/>
-    <row r="185" x14ac:dyDescent="0.2"/>
-    <row r="186" x14ac:dyDescent="0.2"/>
-    <row r="187" x14ac:dyDescent="0.2"/>
-    <row r="188" x14ac:dyDescent="0.2"/>
-    <row r="189" x14ac:dyDescent="0.2"/>
-    <row r="190" x14ac:dyDescent="0.2"/>
-    <row r="191" x14ac:dyDescent="0.2"/>
-    <row r="192" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="194" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="195" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="197" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="1:128" s="140" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:128"/>
+    <row r="159" spans="1:128"/>
+    <row r="160" spans="1:128"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193" spans="1:128"/>
+    <row r="194" spans="1:128"/>
+    <row r="195" spans="1:128"/>
+    <row r="196" spans="1:128"/>
+    <row r="197" spans="1:128"/>
+    <row r="198" spans="1:128"/>
+    <row r="199" spans="1:128"/>
+    <row r="200" spans="1:128" s="140" customFormat="1" ht="36.950000000000003">
       <c r="A200" s="138" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B200" s="139"/>
       <c r="C200" s="139"/>
@@ -8991,70 +8987,70 @@
       <c r="DW200" s="136"/>
       <c r="DX200" s="136"/>
     </row>
-    <row r="201" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="207" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="209" x14ac:dyDescent="0.2"/>
-    <row r="210" x14ac:dyDescent="0.2"/>
-    <row r="211" x14ac:dyDescent="0.2"/>
-    <row r="212" x14ac:dyDescent="0.2"/>
-    <row r="213" x14ac:dyDescent="0.2"/>
-    <row r="214" x14ac:dyDescent="0.2"/>
-    <row r="215" x14ac:dyDescent="0.2"/>
-    <row r="216" x14ac:dyDescent="0.2"/>
-    <row r="217" x14ac:dyDescent="0.2"/>
-    <row r="218" x14ac:dyDescent="0.2"/>
-    <row r="219" x14ac:dyDescent="0.2"/>
-    <row r="220" x14ac:dyDescent="0.2"/>
-    <row r="221" x14ac:dyDescent="0.2"/>
-    <row r="222" x14ac:dyDescent="0.2"/>
-    <row r="223" x14ac:dyDescent="0.2"/>
-    <row r="224" x14ac:dyDescent="0.2"/>
-    <row r="225" x14ac:dyDescent="0.2"/>
-    <row r="226" x14ac:dyDescent="0.2"/>
-    <row r="227" x14ac:dyDescent="0.2"/>
-    <row r="228" x14ac:dyDescent="0.2"/>
-    <row r="229" x14ac:dyDescent="0.2"/>
-    <row r="230" x14ac:dyDescent="0.2"/>
-    <row r="231" x14ac:dyDescent="0.2"/>
-    <row r="232" x14ac:dyDescent="0.2"/>
-    <row r="233" x14ac:dyDescent="0.2"/>
-    <row r="234" x14ac:dyDescent="0.2"/>
-    <row r="235" x14ac:dyDescent="0.2"/>
-    <row r="236" x14ac:dyDescent="0.2"/>
-    <row r="237" x14ac:dyDescent="0.2"/>
-    <row r="238" x14ac:dyDescent="0.2"/>
-    <row r="239" x14ac:dyDescent="0.2"/>
-    <row r="240" x14ac:dyDescent="0.2"/>
-    <row r="241" x14ac:dyDescent="0.2"/>
-    <row r="242" x14ac:dyDescent="0.2"/>
-    <row r="243" x14ac:dyDescent="0.2"/>
-    <row r="244" x14ac:dyDescent="0.2"/>
-    <row r="245" x14ac:dyDescent="0.2"/>
-    <row r="246" x14ac:dyDescent="0.2"/>
-    <row r="247" x14ac:dyDescent="0.2"/>
-    <row r="248" x14ac:dyDescent="0.2"/>
-    <row r="249" x14ac:dyDescent="0.2"/>
-    <row r="250" x14ac:dyDescent="0.2"/>
-    <row r="251" x14ac:dyDescent="0.2"/>
-    <row r="252" x14ac:dyDescent="0.2"/>
-    <row r="253" x14ac:dyDescent="0.2"/>
-    <row r="254" x14ac:dyDescent="0.2"/>
-    <row r="255" x14ac:dyDescent="0.2"/>
-    <row r="256" x14ac:dyDescent="0.2"/>
-    <row r="257" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:128" s="140" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:128"/>
+    <row r="202" spans="1:128"/>
+    <row r="203" spans="1:128"/>
+    <row r="204" spans="1:128"/>
+    <row r="205" spans="1:128"/>
+    <row r="206" spans="1:128"/>
+    <row r="207" spans="1:128"/>
+    <row r="208" spans="1:128"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257" spans="1:128"/>
+    <row r="258" spans="1:128"/>
+    <row r="259" spans="1:128"/>
+    <row r="260" spans="1:128"/>
+    <row r="261" spans="1:128"/>
+    <row r="262" spans="1:128" s="140" customFormat="1" ht="36.950000000000003">
       <c r="A262" s="138" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B262" s="139"/>
       <c r="C262" s="139"/>
@@ -9181,76 +9177,76 @@
       <c r="DW262" s="136"/>
       <c r="DX262" s="136"/>
     </row>
-    <row r="263" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="273" x14ac:dyDescent="0.2"/>
-    <row r="274" x14ac:dyDescent="0.2"/>
-    <row r="275" x14ac:dyDescent="0.2"/>
-    <row r="276" x14ac:dyDescent="0.2"/>
-    <row r="277" x14ac:dyDescent="0.2"/>
-    <row r="278" x14ac:dyDescent="0.2"/>
-    <row r="279" x14ac:dyDescent="0.2"/>
-    <row r="280" x14ac:dyDescent="0.2"/>
-    <row r="281" x14ac:dyDescent="0.2"/>
-    <row r="282" x14ac:dyDescent="0.2"/>
-    <row r="283" x14ac:dyDescent="0.2"/>
-    <row r="284" x14ac:dyDescent="0.2"/>
-    <row r="285" x14ac:dyDescent="0.2"/>
-    <row r="286" x14ac:dyDescent="0.2"/>
-    <row r="287" x14ac:dyDescent="0.2"/>
-    <row r="288" x14ac:dyDescent="0.2"/>
-    <row r="289" x14ac:dyDescent="0.2"/>
-    <row r="290" x14ac:dyDescent="0.2"/>
-    <row r="291" x14ac:dyDescent="0.2"/>
-    <row r="292" x14ac:dyDescent="0.2"/>
-    <row r="293" x14ac:dyDescent="0.2"/>
-    <row r="294" x14ac:dyDescent="0.2"/>
-    <row r="295" x14ac:dyDescent="0.2"/>
-    <row r="296" x14ac:dyDescent="0.2"/>
-    <row r="297" x14ac:dyDescent="0.2"/>
-    <row r="298" x14ac:dyDescent="0.2"/>
-    <row r="299" x14ac:dyDescent="0.2"/>
-    <row r="300" x14ac:dyDescent="0.2"/>
-    <row r="301" x14ac:dyDescent="0.2"/>
-    <row r="302" x14ac:dyDescent="0.2"/>
-    <row r="303" x14ac:dyDescent="0.2"/>
-    <row r="304" x14ac:dyDescent="0.2"/>
-    <row r="305" x14ac:dyDescent="0.2"/>
-    <row r="306" x14ac:dyDescent="0.2"/>
-    <row r="307" x14ac:dyDescent="0.2"/>
-    <row r="308" x14ac:dyDescent="0.2"/>
-    <row r="309" x14ac:dyDescent="0.2"/>
-    <row r="310" x14ac:dyDescent="0.2"/>
-    <row r="311" x14ac:dyDescent="0.2"/>
-    <row r="312" x14ac:dyDescent="0.2"/>
-    <row r="313" x14ac:dyDescent="0.2"/>
-    <row r="314" x14ac:dyDescent="0.2"/>
-    <row r="315" x14ac:dyDescent="0.2"/>
-    <row r="316" x14ac:dyDescent="0.2"/>
-    <row r="317" x14ac:dyDescent="0.2"/>
-    <row r="318" x14ac:dyDescent="0.2"/>
-    <row r="319" x14ac:dyDescent="0.2"/>
-    <row r="320" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:128" s="140" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:128"/>
+    <row r="264" spans="1:128"/>
+    <row r="265" spans="1:128"/>
+    <row r="266" spans="1:128"/>
+    <row r="267" spans="1:128"/>
+    <row r="268" spans="1:128"/>
+    <row r="269" spans="1:128"/>
+    <row r="270" spans="1:128"/>
+    <row r="271" spans="1:128"/>
+    <row r="272" spans="1:128"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321" spans="1:128"/>
+    <row r="322" spans="1:128"/>
+    <row r="323" spans="1:128"/>
+    <row r="324" spans="1:128"/>
+    <row r="325" spans="1:128"/>
+    <row r="326" spans="1:128"/>
+    <row r="327" spans="1:128"/>
+    <row r="328" spans="1:128"/>
+    <row r="329" spans="1:128"/>
+    <row r="330" spans="1:128" s="140" customFormat="1" ht="21">
       <c r="A330" s="141" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B330" s="141"/>
       <c r="C330" s="141"/>
@@ -9377,7 +9373,7 @@
       <c r="DW330" s="136"/>
       <c r="DX330" s="136"/>
     </row>
-    <row r="331" spans="1:128" s="140" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:128" s="140" customFormat="1" ht="21">
       <c r="A331" s="141"/>
       <c r="B331" s="141"/>
       <c r="C331" s="141"/>
@@ -9504,47 +9500,47 @@
       <c r="DW331" s="136"/>
       <c r="DX331" s="136"/>
     </row>
-    <row r="332" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="1:128" x14ac:dyDescent="0.2"/>
-    <row r="337" x14ac:dyDescent="0.2"/>
-    <row r="338" x14ac:dyDescent="0.2"/>
-    <row r="339" x14ac:dyDescent="0.2"/>
-    <row r="340" x14ac:dyDescent="0.2"/>
-    <row r="341" x14ac:dyDescent="0.2"/>
-    <row r="342" x14ac:dyDescent="0.2"/>
-    <row r="343" x14ac:dyDescent="0.2"/>
-    <row r="344" x14ac:dyDescent="0.2"/>
-    <row r="345" x14ac:dyDescent="0.2"/>
-    <row r="346" x14ac:dyDescent="0.2"/>
-    <row r="347" x14ac:dyDescent="0.2"/>
-    <row r="348" x14ac:dyDescent="0.2"/>
-    <row r="349" x14ac:dyDescent="0.2"/>
-    <row r="350" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" spans="1:128"/>
+    <row r="333" spans="1:128"/>
+    <row r="334" spans="1:128"/>
+    <row r="335" spans="1:128"/>
+    <row r="336" spans="1:128"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -9562,316 +9558,316 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2" max="256" width="14.6640625" style="40"/>
-    <col min="257" max="257" width="14.6640625" style="40" customWidth="1"/>
-    <col min="258" max="512" width="14.6640625" style="40"/>
-    <col min="513" max="513" width="14.6640625" style="40" customWidth="1"/>
-    <col min="514" max="768" width="14.6640625" style="40"/>
-    <col min="769" max="769" width="14.6640625" style="40" customWidth="1"/>
-    <col min="770" max="1024" width="14.6640625" style="40"/>
-    <col min="1025" max="1025" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1026" max="1280" width="14.6640625" style="40"/>
-    <col min="1281" max="1281" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1282" max="1536" width="14.6640625" style="40"/>
-    <col min="1537" max="1537" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1538" max="1792" width="14.6640625" style="40"/>
-    <col min="1793" max="1793" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1794" max="2048" width="14.6640625" style="40"/>
-    <col min="2049" max="2049" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2050" max="2304" width="14.6640625" style="40"/>
-    <col min="2305" max="2305" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2306" max="2560" width="14.6640625" style="40"/>
-    <col min="2561" max="2561" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2562" max="2816" width="14.6640625" style="40"/>
-    <col min="2817" max="2817" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2818" max="3072" width="14.6640625" style="40"/>
-    <col min="3073" max="3073" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3074" max="3328" width="14.6640625" style="40"/>
-    <col min="3329" max="3329" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3330" max="3584" width="14.6640625" style="40"/>
-    <col min="3585" max="3585" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3586" max="3840" width="14.6640625" style="40"/>
-    <col min="3841" max="3841" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3842" max="4096" width="14.6640625" style="40"/>
-    <col min="4097" max="4097" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4098" max="4352" width="14.6640625" style="40"/>
-    <col min="4353" max="4353" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4354" max="4608" width="14.6640625" style="40"/>
-    <col min="4609" max="4609" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4610" max="4864" width="14.6640625" style="40"/>
-    <col min="4865" max="4865" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4866" max="5120" width="14.6640625" style="40"/>
-    <col min="5121" max="5121" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5122" max="5376" width="14.6640625" style="40"/>
-    <col min="5377" max="5377" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5378" max="5632" width="14.6640625" style="40"/>
-    <col min="5633" max="5633" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5634" max="5888" width="14.6640625" style="40"/>
-    <col min="5889" max="5889" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5890" max="6144" width="14.6640625" style="40"/>
-    <col min="6145" max="6145" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6146" max="6400" width="14.6640625" style="40"/>
-    <col min="6401" max="6401" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6402" max="6656" width="14.6640625" style="40"/>
-    <col min="6657" max="6657" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6658" max="6912" width="14.6640625" style="40"/>
-    <col min="6913" max="6913" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6914" max="7168" width="14.6640625" style="40"/>
-    <col min="7169" max="7169" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7170" max="7424" width="14.6640625" style="40"/>
-    <col min="7425" max="7425" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7426" max="7680" width="14.6640625" style="40"/>
-    <col min="7681" max="7681" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7682" max="7936" width="14.6640625" style="40"/>
-    <col min="7937" max="7937" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7938" max="8192" width="14.6640625" style="40"/>
-    <col min="8193" max="8193" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8194" max="8448" width="14.6640625" style="40"/>
-    <col min="8449" max="8449" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8450" max="8704" width="14.6640625" style="40"/>
-    <col min="8705" max="8705" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8706" max="8960" width="14.6640625" style="40"/>
-    <col min="8961" max="8961" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8962" max="9216" width="14.6640625" style="40"/>
-    <col min="9217" max="9217" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9218" max="9472" width="14.6640625" style="40"/>
-    <col min="9473" max="9473" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9474" max="9728" width="14.6640625" style="40"/>
-    <col min="9729" max="9729" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9730" max="9984" width="14.6640625" style="40"/>
-    <col min="9985" max="9985" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9986" max="10240" width="14.6640625" style="40"/>
-    <col min="10241" max="10241" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10242" max="10496" width="14.6640625" style="40"/>
-    <col min="10497" max="10497" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10498" max="10752" width="14.6640625" style="40"/>
-    <col min="10753" max="10753" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10754" max="11008" width="14.6640625" style="40"/>
-    <col min="11009" max="11009" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11010" max="11264" width="14.6640625" style="40"/>
-    <col min="11265" max="11265" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11266" max="11520" width="14.6640625" style="40"/>
-    <col min="11521" max="11521" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11522" max="11776" width="14.6640625" style="40"/>
-    <col min="11777" max="11777" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11778" max="12032" width="14.6640625" style="40"/>
-    <col min="12033" max="12033" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12034" max="12288" width="14.6640625" style="40"/>
-    <col min="12289" max="12289" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12290" max="12544" width="14.6640625" style="40"/>
-    <col min="12545" max="12545" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12546" max="12800" width="14.6640625" style="40"/>
-    <col min="12801" max="12801" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12802" max="13056" width="14.6640625" style="40"/>
-    <col min="13057" max="13057" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13058" max="13312" width="14.6640625" style="40"/>
-    <col min="13313" max="13313" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13314" max="13568" width="14.6640625" style="40"/>
-    <col min="13569" max="13569" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13570" max="13824" width="14.6640625" style="40"/>
-    <col min="13825" max="13825" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13826" max="14080" width="14.6640625" style="40"/>
-    <col min="14081" max="14081" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14082" max="14336" width="14.6640625" style="40"/>
-    <col min="14337" max="14337" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14338" max="14592" width="14.6640625" style="40"/>
-    <col min="14593" max="14593" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14594" max="14848" width="14.6640625" style="40"/>
-    <col min="14849" max="14849" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14850" max="15104" width="14.6640625" style="40"/>
-    <col min="15105" max="15105" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15106" max="15360" width="14.6640625" style="40"/>
-    <col min="15361" max="15361" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15362" max="15616" width="14.6640625" style="40"/>
-    <col min="15617" max="15617" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15618" max="15872" width="14.6640625" style="40"/>
-    <col min="15873" max="15873" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15874" max="16128" width="14.6640625" style="40"/>
-    <col min="16129" max="16129" width="14.6640625" style="40" customWidth="1"/>
-    <col min="16130" max="16384" width="14.6640625" style="40"/>
+    <col min="1" max="1" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2" max="256" width="14.7109375" style="40"/>
+    <col min="257" max="257" width="14.7109375" style="40" customWidth="1"/>
+    <col min="258" max="512" width="14.7109375" style="40"/>
+    <col min="513" max="513" width="14.7109375" style="40" customWidth="1"/>
+    <col min="514" max="768" width="14.7109375" style="40"/>
+    <col min="769" max="769" width="14.7109375" style="40" customWidth="1"/>
+    <col min="770" max="1024" width="14.7109375" style="40"/>
+    <col min="1025" max="1025" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1026" max="1280" width="14.7109375" style="40"/>
+    <col min="1281" max="1281" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1282" max="1536" width="14.7109375" style="40"/>
+    <col min="1537" max="1537" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1538" max="1792" width="14.7109375" style="40"/>
+    <col min="1793" max="1793" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1794" max="2048" width="14.7109375" style="40"/>
+    <col min="2049" max="2049" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2050" max="2304" width="14.7109375" style="40"/>
+    <col min="2305" max="2305" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2306" max="2560" width="14.7109375" style="40"/>
+    <col min="2561" max="2561" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2562" max="2816" width="14.7109375" style="40"/>
+    <col min="2817" max="2817" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2818" max="3072" width="14.7109375" style="40"/>
+    <col min="3073" max="3073" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3074" max="3328" width="14.7109375" style="40"/>
+    <col min="3329" max="3329" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3330" max="3584" width="14.7109375" style="40"/>
+    <col min="3585" max="3585" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3586" max="3840" width="14.7109375" style="40"/>
+    <col min="3841" max="3841" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3842" max="4096" width="14.7109375" style="40"/>
+    <col min="4097" max="4097" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4098" max="4352" width="14.7109375" style="40"/>
+    <col min="4353" max="4353" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4354" max="4608" width="14.7109375" style="40"/>
+    <col min="4609" max="4609" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4610" max="4864" width="14.7109375" style="40"/>
+    <col min="4865" max="4865" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4866" max="5120" width="14.7109375" style="40"/>
+    <col min="5121" max="5121" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5122" max="5376" width="14.7109375" style="40"/>
+    <col min="5377" max="5377" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5378" max="5632" width="14.7109375" style="40"/>
+    <col min="5633" max="5633" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5634" max="5888" width="14.7109375" style="40"/>
+    <col min="5889" max="5889" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5890" max="6144" width="14.7109375" style="40"/>
+    <col min="6145" max="6145" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6146" max="6400" width="14.7109375" style="40"/>
+    <col min="6401" max="6401" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6402" max="6656" width="14.7109375" style="40"/>
+    <col min="6657" max="6657" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6658" max="6912" width="14.7109375" style="40"/>
+    <col min="6913" max="6913" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6914" max="7168" width="14.7109375" style="40"/>
+    <col min="7169" max="7169" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7170" max="7424" width="14.7109375" style="40"/>
+    <col min="7425" max="7425" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7426" max="7680" width="14.7109375" style="40"/>
+    <col min="7681" max="7681" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7682" max="7936" width="14.7109375" style="40"/>
+    <col min="7937" max="7937" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7938" max="8192" width="14.7109375" style="40"/>
+    <col min="8193" max="8193" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8194" max="8448" width="14.7109375" style="40"/>
+    <col min="8449" max="8449" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8450" max="8704" width="14.7109375" style="40"/>
+    <col min="8705" max="8705" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8706" max="8960" width="14.7109375" style="40"/>
+    <col min="8961" max="8961" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8962" max="9216" width="14.7109375" style="40"/>
+    <col min="9217" max="9217" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9218" max="9472" width="14.7109375" style="40"/>
+    <col min="9473" max="9473" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9474" max="9728" width="14.7109375" style="40"/>
+    <col min="9729" max="9729" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9730" max="9984" width="14.7109375" style="40"/>
+    <col min="9985" max="9985" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9986" max="10240" width="14.7109375" style="40"/>
+    <col min="10241" max="10241" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10242" max="10496" width="14.7109375" style="40"/>
+    <col min="10497" max="10497" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10498" max="10752" width="14.7109375" style="40"/>
+    <col min="10753" max="10753" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10754" max="11008" width="14.7109375" style="40"/>
+    <col min="11009" max="11009" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11010" max="11264" width="14.7109375" style="40"/>
+    <col min="11265" max="11265" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11266" max="11520" width="14.7109375" style="40"/>
+    <col min="11521" max="11521" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11522" max="11776" width="14.7109375" style="40"/>
+    <col min="11777" max="11777" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11778" max="12032" width="14.7109375" style="40"/>
+    <col min="12033" max="12033" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12034" max="12288" width="14.7109375" style="40"/>
+    <col min="12289" max="12289" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12290" max="12544" width="14.7109375" style="40"/>
+    <col min="12545" max="12545" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12546" max="12800" width="14.7109375" style="40"/>
+    <col min="12801" max="12801" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12802" max="13056" width="14.7109375" style="40"/>
+    <col min="13057" max="13057" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13058" max="13312" width="14.7109375" style="40"/>
+    <col min="13313" max="13313" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13314" max="13568" width="14.7109375" style="40"/>
+    <col min="13569" max="13569" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13570" max="13824" width="14.7109375" style="40"/>
+    <col min="13825" max="13825" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13826" max="14080" width="14.7109375" style="40"/>
+    <col min="14081" max="14081" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14082" max="14336" width="14.7109375" style="40"/>
+    <col min="14337" max="14337" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14338" max="14592" width="14.7109375" style="40"/>
+    <col min="14593" max="14593" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14594" max="14848" width="14.7109375" style="40"/>
+    <col min="14849" max="14849" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14850" max="15104" width="14.7109375" style="40"/>
+    <col min="15105" max="15105" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15106" max="15360" width="14.7109375" style="40"/>
+    <col min="15361" max="15361" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15362" max="15616" width="14.7109375" style="40"/>
+    <col min="15617" max="15617" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15618" max="15872" width="14.7109375" style="40"/>
+    <col min="15873" max="15873" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15874" max="16128" width="14.7109375" style="40"/>
+    <col min="16129" max="16129" width="14.7109375" style="40" customWidth="1"/>
+    <col min="16130" max="16384" width="14.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1233" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1233" s="15" customFormat="1" ht="18">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:1233" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1233" s="18" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:1233" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1233" s="22" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:1233" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1233" s="22" customFormat="1" ht="12">
       <c r="A4" s="21" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:1233" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1233" s="22" customFormat="1" ht="12">
       <c r="A5" s="21" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1233" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1233" s="22" customFormat="1" ht="12">
       <c r="A6" s="21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:1233" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1233" s="27" customFormat="1">
       <c r="A7" s="26" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="AA7" s="27" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="AC7" s="27" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="AE7" s="27" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="AF7" s="27" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="AH7" s="27" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:1233" s="29" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1233" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
     </row>
-    <row r="9" spans="1:1233" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:1233" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1233" s="30" customFormat="1"/>
+    <row r="10" spans="1:1233" s="18" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:1233" s="33" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1233" s="33" customFormat="1" ht="12">
       <c r="A11" s="32"/>
     </row>
-    <row r="12" spans="1:1233" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1233" s="80" customFormat="1">
       <c r="A12" s="81" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F12" s="85">
         <v>42736</v>
@@ -11270,18 +11266,18 @@
       <c r="AUJ12" s="85"/>
       <c r="AUK12" s="85"/>
     </row>
-    <row r="13" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1233">
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1233">
       <c r="A14" s="40" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E14" s="83">
         <v>45307</v>
@@ -12683,15 +12679,15 @@
       <c r="AUJ14" s="48"/>
       <c r="AUK14" s="48"/>
     </row>
-    <row r="15" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1233">
       <c r="A15" s="40" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E15" s="83">
         <v>45307</v>
@@ -14093,15 +14089,15 @@
       <c r="AUJ15" s="42"/>
       <c r="AUK15" s="42"/>
     </row>
-    <row r="16" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1233">
       <c r="A16" s="40" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E16" s="83">
         <v>45296</v>
@@ -15503,15 +15499,15 @@
       <c r="AUJ16" s="42"/>
       <c r="AUK16" s="42"/>
     </row>
-    <row r="17" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1233">
       <c r="A17" s="40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E17" s="83">
         <v>45296</v>
@@ -16913,15 +16909,15 @@
       <c r="AUJ17" s="42"/>
       <c r="AUK17" s="42"/>
     </row>
-    <row r="18" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1233">
       <c r="A18" s="40" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E18" s="83">
         <v>45296</v>
@@ -18323,15 +18319,15 @@
       <c r="AUJ18" s="42"/>
       <c r="AUK18" s="42"/>
     </row>
-    <row r="19" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1233">
       <c r="A19" s="40" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E19" s="83">
         <v>45296</v>
@@ -19733,15 +19729,15 @@
       <c r="AUJ19" s="43"/>
       <c r="AUK19" s="43"/>
     </row>
-    <row r="20" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1233">
       <c r="A20" s="40" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E20" s="83">
         <v>45296</v>
@@ -21143,15 +21139,15 @@
       <c r="AUJ20" s="42"/>
       <c r="AUK20" s="42"/>
     </row>
-    <row r="21" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1233">
       <c r="A21" s="40" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E21" s="83">
         <v>45296</v>
@@ -22553,15 +22549,15 @@
       <c r="AUJ21" s="43"/>
       <c r="AUK21" s="43"/>
     </row>
-    <row r="22" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1233">
       <c r="A22" s="40" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E22" s="83">
         <v>45296</v>
@@ -23963,15 +23959,15 @@
       <c r="AUJ22" s="42"/>
       <c r="AUK22" s="42"/>
     </row>
-    <row r="23" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1233">
       <c r="A23" s="40" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E23" s="83">
         <v>45296</v>
@@ -25373,15 +25369,15 @@
       <c r="AUJ23" s="48"/>
       <c r="AUK23" s="48"/>
     </row>
-    <row r="24" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1233">
       <c r="A24" s="40" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E24" s="83">
         <v>45296</v>
@@ -26783,15 +26779,15 @@
       <c r="AUJ24" s="42"/>
       <c r="AUK24" s="42"/>
     </row>
-    <row r="25" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1233">
       <c r="A25" s="40" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E25" s="83">
         <v>45296</v>
@@ -28193,15 +28189,15 @@
       <c r="AUJ25" s="42"/>
       <c r="AUK25" s="42"/>
     </row>
-    <row r="26" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1233">
       <c r="A26" s="40" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E26" s="83">
         <v>45296</v>
@@ -29603,15 +29599,15 @@
       <c r="AUJ26" s="48"/>
       <c r="AUK26" s="48"/>
     </row>
-    <row r="27" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1233">
       <c r="A27" s="40" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E27" s="83">
         <v>45296</v>
@@ -31013,15 +31009,15 @@
       <c r="AUJ27" s="48"/>
       <c r="AUK27" s="48"/>
     </row>
-    <row r="28" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1233">
       <c r="A28" s="40" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E28" s="83">
         <v>45296</v>
@@ -32423,15 +32419,15 @@
       <c r="AUJ28" s="48"/>
       <c r="AUK28" s="48"/>
     </row>
-    <row r="29" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1233">
       <c r="A29" s="40" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E29" s="83">
         <v>45296</v>
@@ -33833,15 +33829,15 @@
       <c r="AUJ29" s="43"/>
       <c r="AUK29" s="43"/>
     </row>
-    <row r="30" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1233">
       <c r="A30" s="40" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E30" s="83">
         <v>45296</v>
@@ -35243,15 +35239,15 @@
       <c r="AUJ30" s="42"/>
       <c r="AUK30" s="42"/>
     </row>
-    <row r="31" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1233">
       <c r="A31" s="40" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E31" s="83">
         <v>45296</v>
@@ -36653,15 +36649,15 @@
       <c r="AUJ31" s="48"/>
       <c r="AUK31" s="48"/>
     </row>
-    <row r="32" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1233">
       <c r="A32" s="40" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E32" s="83">
         <v>45296</v>
@@ -38063,15 +38059,15 @@
       <c r="AUJ32" s="48"/>
       <c r="AUK32" s="48"/>
     </row>
-    <row r="33" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1233">
       <c r="A33" s="40" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E33" s="83">
         <v>45296</v>
@@ -39473,15 +39469,15 @@
       <c r="AUJ33" s="42"/>
       <c r="AUK33" s="42"/>
     </row>
-    <row r="34" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1233">
       <c r="A34" s="40" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E34" s="83">
         <v>45296</v>
@@ -40883,15 +40879,15 @@
       <c r="AUJ34" s="42"/>
       <c r="AUK34" s="42"/>
     </row>
-    <row r="35" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1233">
       <c r="A35" s="40" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E35" s="83">
         <v>43188</v>
@@ -42293,15 +42289,15 @@
       <c r="AUJ35" s="37"/>
       <c r="AUK35" s="37"/>
     </row>
-    <row r="36" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1233">
       <c r="A36" s="40" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E36" s="83">
         <v>45307</v>
@@ -43703,15 +43699,15 @@
       <c r="AUJ36" s="43"/>
       <c r="AUK36" s="43"/>
     </row>
-    <row r="37" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1233">
       <c r="A37" s="40" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E37" s="83">
         <v>45296</v>
@@ -45113,15 +45109,15 @@
       <c r="AUJ37" s="43"/>
       <c r="AUK37" s="43"/>
     </row>
-    <row r="38" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1233">
       <c r="A38" s="40" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E38" s="83">
         <v>45296</v>
@@ -46523,15 +46519,15 @@
       <c r="AUJ38" s="43"/>
       <c r="AUK38" s="43"/>
     </row>
-    <row r="39" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1233">
       <c r="A39" s="40" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E39" s="83">
         <v>45296</v>
@@ -47933,15 +47929,15 @@
       <c r="AUJ39" s="43"/>
       <c r="AUK39" s="43"/>
     </row>
-    <row r="40" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1233">
       <c r="A40" s="40" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E40" s="83">
         <v>45296</v>
@@ -49343,15 +49339,15 @@
       <c r="AUJ40" s="49"/>
       <c r="AUK40" s="49"/>
     </row>
-    <row r="41" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1233">
       <c r="A41" s="40" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E41" s="83">
         <v>45307</v>
@@ -50753,15 +50749,15 @@
       <c r="AUJ41" s="42"/>
       <c r="AUK41" s="42"/>
     </row>
-    <row r="42" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1233">
       <c r="A42" s="40" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E42" s="83">
         <v>45307</v>
@@ -52163,12 +52159,12 @@
       <c r="AUJ42" s="42"/>
       <c r="AUK42" s="42"/>
     </row>
-    <row r="43" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1233">
       <c r="A43" s="40" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E43" s="83">
         <v>43714</v>
@@ -53570,12 +53566,12 @@
       <c r="AUJ43" s="43"/>
       <c r="AUK43" s="43"/>
     </row>
-    <row r="44" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1233">
       <c r="A44" s="40" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E44" s="83">
         <v>43714</v>
@@ -54977,15 +54973,15 @@
       <c r="AUJ44" s="43"/>
       <c r="AUK44" s="43"/>
     </row>
-    <row r="45" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1233">
       <c r="A45" s="40" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E45" s="83">
         <v>45296</v>
@@ -56387,15 +56383,15 @@
       <c r="AUJ45" s="43"/>
       <c r="AUK45" s="43"/>
     </row>
-    <row r="46" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1233">
       <c r="A46" s="40" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C46" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>81</v>
       </c>
       <c r="E46" s="83">
         <v>45299</v>
@@ -57797,667 +57793,667 @@
       <c r="AUJ46" s="42"/>
       <c r="AUK46" s="42"/>
     </row>
-    <row r="47" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1233">
       <c r="E47" s="83"/>
     </row>
-    <row r="48" spans="1:1233" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1233">
       <c r="E48" s="83"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:5">
       <c r="E49" s="83"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:5">
       <c r="E50" s="83"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:5">
       <c r="E51" s="83"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:5">
       <c r="E52" s="83"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:5">
       <c r="E53" s="83"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:5">
       <c r="E54" s="83"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:5">
       <c r="E55" s="83"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:5">
       <c r="E56" s="83"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:5">
       <c r="E57" s="83"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:5">
       <c r="E58" s="83"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:5">
       <c r="E59" s="83"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:5">
       <c r="E60" s="83"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:5">
       <c r="E61" s="83"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:5">
       <c r="E62" s="83"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:5">
       <c r="E63" s="83"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="5:5">
       <c r="E64" s="83"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:5">
       <c r="E65" s="83"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:5">
       <c r="E66" s="83"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:5">
       <c r="E67" s="83"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:5">
       <c r="E68" s="83"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:5">
       <c r="E69" s="83"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:5">
       <c r="E70" s="83"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:5">
       <c r="E71" s="83"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:5">
       <c r="E72" s="83"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:5">
       <c r="E73" s="83"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="5:5">
       <c r="E74" s="83"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="5:5">
       <c r="E75" s="83"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="5:5">
       <c r="E76" s="83"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:5">
       <c r="E77" s="83"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:5">
       <c r="E78" s="83"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="5:5">
       <c r="E79" s="83"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:5">
       <c r="E80" s="83"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:5">
       <c r="E81" s="83"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:5">
       <c r="E82" s="83"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:5">
       <c r="E83" s="83"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:5">
       <c r="E84" s="83"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:5">
       <c r="E85" s="83"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="5:5">
       <c r="E86" s="83"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="5:5">
       <c r="E87" s="83"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="5:5">
       <c r="E88" s="83"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="5:5">
       <c r="E89" s="83"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:5">
       <c r="E90" s="83"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="5:5">
       <c r="E91" s="83"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="5:5">
       <c r="E92" s="83"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:5">
       <c r="E93" s="83"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="5:5">
       <c r="E94" s="83"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="5:5">
       <c r="E95" s="83"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="5:5">
       <c r="E96" s="83"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:5">
       <c r="E97" s="83"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:5">
       <c r="E98" s="83"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:5">
       <c r="E99" s="83"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:5">
       <c r="E100" s="83"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="5:5">
       <c r="E101" s="83"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="5:5">
       <c r="E102" s="83"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="5:5">
       <c r="E103" s="83"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="5:5">
       <c r="E104" s="83"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="5:5">
       <c r="E105" s="83"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:5">
       <c r="E106" s="83"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:5">
       <c r="E107" s="83"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="5:5">
       <c r="E108" s="83"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="5:5">
       <c r="E109" s="83"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:5">
       <c r="E110" s="83"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="5:5">
       <c r="E111" s="83"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="5:5">
       <c r="E112" s="83"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="5:5">
       <c r="E113" s="83"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="5:5">
       <c r="E114" s="83"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:5">
       <c r="E115" s="83"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:5">
       <c r="E116" s="83"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:5">
       <c r="E117" s="83"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="5:5">
       <c r="E118" s="83"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="5:5">
       <c r="E119" s="83"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="5:5">
       <c r="E120" s="83"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="5:5">
       <c r="E121" s="83"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="5:5">
       <c r="E122" s="83"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="5:5">
       <c r="E123" s="83"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="5:5">
       <c r="E124" s="83"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="5:5">
       <c r="E125" s="83"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="5:5">
       <c r="E126" s="83"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="5:5">
       <c r="E127" s="83"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="5:5">
       <c r="E128" s="83"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="5:5">
       <c r="E129" s="83"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="5:5">
       <c r="E130" s="83"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="5:5">
       <c r="E131" s="83"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="5:5">
       <c r="E132" s="83"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="5:5">
       <c r="E133" s="83"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="5:5">
       <c r="E134" s="83"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="5:5">
       <c r="E135" s="83"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="5:5">
       <c r="E136" s="83"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="5:5">
       <c r="E137" s="83"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="5:5">
       <c r="E138" s="83"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="5:5">
       <c r="E139" s="83"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="5:5">
       <c r="E140" s="83"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="5:5">
       <c r="E141" s="83"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="5:5">
       <c r="E142" s="83"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="5:5">
       <c r="E143" s="83"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="5:5">
       <c r="E144" s="83"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="5:5">
       <c r="E145" s="83"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="5:5">
       <c r="E146" s="83"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="5:5">
       <c r="E147" s="83"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="5:5">
       <c r="E148" s="83"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="5:5">
       <c r="E149" s="83"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="5:5">
       <c r="E150" s="83"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="5:5">
       <c r="E151" s="83"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="5:5">
       <c r="E152" s="83"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="5:5">
       <c r="E153" s="83"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="5:5">
       <c r="E154" s="83"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="5:5">
       <c r="E155" s="83"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="5:5">
       <c r="E156" s="83"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="5:5">
       <c r="E157" s="83"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="5:5">
       <c r="E158" s="83"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="5:5">
       <c r="E159" s="83"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="5:5">
       <c r="E160" s="83"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="5:5">
       <c r="E161" s="83"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="5:5">
       <c r="E162" s="83"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="5:5">
       <c r="E163" s="83"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="5:5">
       <c r="E164" s="83"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="5:5">
       <c r="E165" s="83"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="5:5">
       <c r="E166" s="83"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="5:5">
       <c r="E167" s="83"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="5:5">
       <c r="E168" s="83"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="5:5">
       <c r="E169" s="83"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="5:5">
       <c r="E170" s="83"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="5:5">
       <c r="E171" s="83"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="5:5">
       <c r="E172" s="83"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="5:5">
       <c r="E173" s="83"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="5:5">
       <c r="E174" s="83"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="5:5">
       <c r="E175" s="83"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="5:5">
       <c r="E176" s="83"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="5:5">
       <c r="E177" s="83"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="5:5">
       <c r="E178" s="83"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="5:5">
       <c r="E179" s="83"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="5:5">
       <c r="E180" s="83"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="5:5">
       <c r="E181" s="83"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="5:5">
       <c r="E182" s="83"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="5:5">
       <c r="E183" s="83"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="5:5">
       <c r="E184" s="83"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="5:5">
       <c r="E185" s="83"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="5:5">
       <c r="E186" s="83"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="5:5">
       <c r="E187" s="83"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="5:5">
       <c r="E188" s="83"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="5:5">
       <c r="E189" s="83"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="5:5">
       <c r="E190" s="83"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="5:5">
       <c r="E191" s="83"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="5:5">
       <c r="E192" s="83"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="5:5">
       <c r="E193" s="83"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="5:5">
       <c r="E194" s="83"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="5:5">
       <c r="E195" s="83"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="5:5">
       <c r="E196" s="83"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="5:5">
       <c r="E197" s="83"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="5:5">
       <c r="E198" s="83"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="5:5">
       <c r="E199" s="83"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="5:5">
       <c r="E200" s="83"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="5:5">
       <c r="E201" s="83"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="5:5">
       <c r="E202" s="83"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="5:5">
       <c r="E203" s="83"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="5:5">
       <c r="E204" s="83"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="5:5">
       <c r="E205" s="83"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="5:5">
       <c r="E206" s="83"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="5:5">
       <c r="E207" s="83"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="5:5">
       <c r="E208" s="83"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="5:5">
       <c r="E209" s="83"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="5:5">
       <c r="E210" s="83"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="5:5">
       <c r="E211" s="83"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="5:5">
       <c r="E212" s="83"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="5:5">
       <c r="E213" s="83"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="5:5">
       <c r="E214" s="83"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="5:5">
       <c r="E215" s="83"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="5:5">
       <c r="E216" s="83"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="5:5">
       <c r="E217" s="83"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="5:5">
       <c r="E218" s="83"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="5:5">
       <c r="E219" s="83"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="5:5">
       <c r="E220" s="83"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="5:5">
       <c r="E221" s="83"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="5:5">
       <c r="E222" s="83"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="5:5">
       <c r="E223" s="83"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="5:5">
       <c r="E224" s="83"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="5:5">
       <c r="E225" s="83"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="5:5">
       <c r="E226" s="83"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="5:5">
       <c r="E227" s="83"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="5:5">
       <c r="E228" s="83"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="5:5">
       <c r="E229" s="83"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="5:5">
       <c r="E230" s="83"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="5:5">
       <c r="E231" s="83"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="5:5">
       <c r="E232" s="83"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="5:5">
       <c r="E233" s="83"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="5:5">
       <c r="E234" s="83"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="5:5">
       <c r="E235" s="83"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="5:5">
       <c r="E236" s="83"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="5:5">
       <c r="E237" s="83"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="5:5">
       <c r="E238" s="83"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="5:5">
       <c r="E239" s="83"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="5:5">
       <c r="E240" s="83"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="5:5">
       <c r="E241" s="83"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="5:5">
       <c r="E242" s="83"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="5:5">
       <c r="E243" s="83"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="5:5">
       <c r="E244" s="83"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="5:5">
       <c r="E245" s="83"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="5:5">
       <c r="E246" s="83"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="5:5">
       <c r="E247" s="83"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="5:5">
       <c r="E248" s="83"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="5:5">
       <c r="E249" s="83"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="5:5">
       <c r="E250" s="83"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="5:5">
       <c r="E251" s="83"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="5:5">
       <c r="E252" s="83"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="5:5">
       <c r="E253" s="83"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="5:5">
       <c r="E254" s="83"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="5:5">
       <c r="E255" s="83"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="5:5">
       <c r="E256" s="83"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="5:5">
       <c r="E257" s="83"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="5:5">
       <c r="E258" s="83"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="5:5">
       <c r="E259" s="83"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="5:5">
       <c r="E260" s="83"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="5:5">
       <c r="E261" s="83"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="5:5">
       <c r="E262" s="83"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="5:5">
       <c r="E263" s="83"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="5:5">
       <c r="E264" s="83"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="5:5">
       <c r="E265" s="83"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="5:5">
       <c r="E266" s="83"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="5:5">
       <c r="E267" s="83"/>
     </row>
   </sheetData>
@@ -58537,316 +58533,316 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2" max="256" width="14.6640625" style="40"/>
-    <col min="257" max="257" width="14.6640625" style="40" customWidth="1"/>
-    <col min="258" max="512" width="14.6640625" style="40"/>
-    <col min="513" max="513" width="14.6640625" style="40" customWidth="1"/>
-    <col min="514" max="768" width="14.6640625" style="40"/>
-    <col min="769" max="769" width="14.6640625" style="40" customWidth="1"/>
-    <col min="770" max="1024" width="14.6640625" style="40"/>
-    <col min="1025" max="1025" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1026" max="1280" width="14.6640625" style="40"/>
-    <col min="1281" max="1281" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1282" max="1536" width="14.6640625" style="40"/>
-    <col min="1537" max="1537" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1538" max="1792" width="14.6640625" style="40"/>
-    <col min="1793" max="1793" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1794" max="2048" width="14.6640625" style="40"/>
-    <col min="2049" max="2049" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2050" max="2304" width="14.6640625" style="40"/>
-    <col min="2305" max="2305" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2306" max="2560" width="14.6640625" style="40"/>
-    <col min="2561" max="2561" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2562" max="2816" width="14.6640625" style="40"/>
-    <col min="2817" max="2817" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2818" max="3072" width="14.6640625" style="40"/>
-    <col min="3073" max="3073" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3074" max="3328" width="14.6640625" style="40"/>
-    <col min="3329" max="3329" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3330" max="3584" width="14.6640625" style="40"/>
-    <col min="3585" max="3585" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3586" max="3840" width="14.6640625" style="40"/>
-    <col min="3841" max="3841" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3842" max="4096" width="14.6640625" style="40"/>
-    <col min="4097" max="4097" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4098" max="4352" width="14.6640625" style="40"/>
-    <col min="4353" max="4353" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4354" max="4608" width="14.6640625" style="40"/>
-    <col min="4609" max="4609" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4610" max="4864" width="14.6640625" style="40"/>
-    <col min="4865" max="4865" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4866" max="5120" width="14.6640625" style="40"/>
-    <col min="5121" max="5121" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5122" max="5376" width="14.6640625" style="40"/>
-    <col min="5377" max="5377" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5378" max="5632" width="14.6640625" style="40"/>
-    <col min="5633" max="5633" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5634" max="5888" width="14.6640625" style="40"/>
-    <col min="5889" max="5889" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5890" max="6144" width="14.6640625" style="40"/>
-    <col min="6145" max="6145" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6146" max="6400" width="14.6640625" style="40"/>
-    <col min="6401" max="6401" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6402" max="6656" width="14.6640625" style="40"/>
-    <col min="6657" max="6657" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6658" max="6912" width="14.6640625" style="40"/>
-    <col min="6913" max="6913" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6914" max="7168" width="14.6640625" style="40"/>
-    <col min="7169" max="7169" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7170" max="7424" width="14.6640625" style="40"/>
-    <col min="7425" max="7425" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7426" max="7680" width="14.6640625" style="40"/>
-    <col min="7681" max="7681" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7682" max="7936" width="14.6640625" style="40"/>
-    <col min="7937" max="7937" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7938" max="8192" width="14.6640625" style="40"/>
-    <col min="8193" max="8193" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8194" max="8448" width="14.6640625" style="40"/>
-    <col min="8449" max="8449" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8450" max="8704" width="14.6640625" style="40"/>
-    <col min="8705" max="8705" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8706" max="8960" width="14.6640625" style="40"/>
-    <col min="8961" max="8961" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8962" max="9216" width="14.6640625" style="40"/>
-    <col min="9217" max="9217" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9218" max="9472" width="14.6640625" style="40"/>
-    <col min="9473" max="9473" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9474" max="9728" width="14.6640625" style="40"/>
-    <col min="9729" max="9729" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9730" max="9984" width="14.6640625" style="40"/>
-    <col min="9985" max="9985" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9986" max="10240" width="14.6640625" style="40"/>
-    <col min="10241" max="10241" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10242" max="10496" width="14.6640625" style="40"/>
-    <col min="10497" max="10497" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10498" max="10752" width="14.6640625" style="40"/>
-    <col min="10753" max="10753" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10754" max="11008" width="14.6640625" style="40"/>
-    <col min="11009" max="11009" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11010" max="11264" width="14.6640625" style="40"/>
-    <col min="11265" max="11265" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11266" max="11520" width="14.6640625" style="40"/>
-    <col min="11521" max="11521" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11522" max="11776" width="14.6640625" style="40"/>
-    <col min="11777" max="11777" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11778" max="12032" width="14.6640625" style="40"/>
-    <col min="12033" max="12033" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12034" max="12288" width="14.6640625" style="40"/>
-    <col min="12289" max="12289" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12290" max="12544" width="14.6640625" style="40"/>
-    <col min="12545" max="12545" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12546" max="12800" width="14.6640625" style="40"/>
-    <col min="12801" max="12801" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12802" max="13056" width="14.6640625" style="40"/>
-    <col min="13057" max="13057" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13058" max="13312" width="14.6640625" style="40"/>
-    <col min="13313" max="13313" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13314" max="13568" width="14.6640625" style="40"/>
-    <col min="13569" max="13569" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13570" max="13824" width="14.6640625" style="40"/>
-    <col min="13825" max="13825" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13826" max="14080" width="14.6640625" style="40"/>
-    <col min="14081" max="14081" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14082" max="14336" width="14.6640625" style="40"/>
-    <col min="14337" max="14337" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14338" max="14592" width="14.6640625" style="40"/>
-    <col min="14593" max="14593" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14594" max="14848" width="14.6640625" style="40"/>
-    <col min="14849" max="14849" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14850" max="15104" width="14.6640625" style="40"/>
-    <col min="15105" max="15105" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15106" max="15360" width="14.6640625" style="40"/>
-    <col min="15361" max="15361" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15362" max="15616" width="14.6640625" style="40"/>
-    <col min="15617" max="15617" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15618" max="15872" width="14.6640625" style="40"/>
-    <col min="15873" max="15873" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15874" max="16128" width="14.6640625" style="40"/>
-    <col min="16129" max="16129" width="14.6640625" style="40" customWidth="1"/>
-    <col min="16130" max="16384" width="14.6640625" style="40"/>
+    <col min="1" max="1" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2" max="256" width="14.7109375" style="40"/>
+    <col min="257" max="257" width="14.7109375" style="40" customWidth="1"/>
+    <col min="258" max="512" width="14.7109375" style="40"/>
+    <col min="513" max="513" width="14.7109375" style="40" customWidth="1"/>
+    <col min="514" max="768" width="14.7109375" style="40"/>
+    <col min="769" max="769" width="14.7109375" style="40" customWidth="1"/>
+    <col min="770" max="1024" width="14.7109375" style="40"/>
+    <col min="1025" max="1025" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1026" max="1280" width="14.7109375" style="40"/>
+    <col min="1281" max="1281" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1282" max="1536" width="14.7109375" style="40"/>
+    <col min="1537" max="1537" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1538" max="1792" width="14.7109375" style="40"/>
+    <col min="1793" max="1793" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1794" max="2048" width="14.7109375" style="40"/>
+    <col min="2049" max="2049" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2050" max="2304" width="14.7109375" style="40"/>
+    <col min="2305" max="2305" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2306" max="2560" width="14.7109375" style="40"/>
+    <col min="2561" max="2561" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2562" max="2816" width="14.7109375" style="40"/>
+    <col min="2817" max="2817" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2818" max="3072" width="14.7109375" style="40"/>
+    <col min="3073" max="3073" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3074" max="3328" width="14.7109375" style="40"/>
+    <col min="3329" max="3329" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3330" max="3584" width="14.7109375" style="40"/>
+    <col min="3585" max="3585" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3586" max="3840" width="14.7109375" style="40"/>
+    <col min="3841" max="3841" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3842" max="4096" width="14.7109375" style="40"/>
+    <col min="4097" max="4097" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4098" max="4352" width="14.7109375" style="40"/>
+    <col min="4353" max="4353" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4354" max="4608" width="14.7109375" style="40"/>
+    <col min="4609" max="4609" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4610" max="4864" width="14.7109375" style="40"/>
+    <col min="4865" max="4865" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4866" max="5120" width="14.7109375" style="40"/>
+    <col min="5121" max="5121" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5122" max="5376" width="14.7109375" style="40"/>
+    <col min="5377" max="5377" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5378" max="5632" width="14.7109375" style="40"/>
+    <col min="5633" max="5633" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5634" max="5888" width="14.7109375" style="40"/>
+    <col min="5889" max="5889" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5890" max="6144" width="14.7109375" style="40"/>
+    <col min="6145" max="6145" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6146" max="6400" width="14.7109375" style="40"/>
+    <col min="6401" max="6401" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6402" max="6656" width="14.7109375" style="40"/>
+    <col min="6657" max="6657" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6658" max="6912" width="14.7109375" style="40"/>
+    <col min="6913" max="6913" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6914" max="7168" width="14.7109375" style="40"/>
+    <col min="7169" max="7169" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7170" max="7424" width="14.7109375" style="40"/>
+    <col min="7425" max="7425" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7426" max="7680" width="14.7109375" style="40"/>
+    <col min="7681" max="7681" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7682" max="7936" width="14.7109375" style="40"/>
+    <col min="7937" max="7937" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7938" max="8192" width="14.7109375" style="40"/>
+    <col min="8193" max="8193" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8194" max="8448" width="14.7109375" style="40"/>
+    <col min="8449" max="8449" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8450" max="8704" width="14.7109375" style="40"/>
+    <col min="8705" max="8705" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8706" max="8960" width="14.7109375" style="40"/>
+    <col min="8961" max="8961" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8962" max="9216" width="14.7109375" style="40"/>
+    <col min="9217" max="9217" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9218" max="9472" width="14.7109375" style="40"/>
+    <col min="9473" max="9473" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9474" max="9728" width="14.7109375" style="40"/>
+    <col min="9729" max="9729" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9730" max="9984" width="14.7109375" style="40"/>
+    <col min="9985" max="9985" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9986" max="10240" width="14.7109375" style="40"/>
+    <col min="10241" max="10241" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10242" max="10496" width="14.7109375" style="40"/>
+    <col min="10497" max="10497" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10498" max="10752" width="14.7109375" style="40"/>
+    <col min="10753" max="10753" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10754" max="11008" width="14.7109375" style="40"/>
+    <col min="11009" max="11009" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11010" max="11264" width="14.7109375" style="40"/>
+    <col min="11265" max="11265" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11266" max="11520" width="14.7109375" style="40"/>
+    <col min="11521" max="11521" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11522" max="11776" width="14.7109375" style="40"/>
+    <col min="11777" max="11777" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11778" max="12032" width="14.7109375" style="40"/>
+    <col min="12033" max="12033" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12034" max="12288" width="14.7109375" style="40"/>
+    <col min="12289" max="12289" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12290" max="12544" width="14.7109375" style="40"/>
+    <col min="12545" max="12545" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12546" max="12800" width="14.7109375" style="40"/>
+    <col min="12801" max="12801" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12802" max="13056" width="14.7109375" style="40"/>
+    <col min="13057" max="13057" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13058" max="13312" width="14.7109375" style="40"/>
+    <col min="13313" max="13313" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13314" max="13568" width="14.7109375" style="40"/>
+    <col min="13569" max="13569" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13570" max="13824" width="14.7109375" style="40"/>
+    <col min="13825" max="13825" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13826" max="14080" width="14.7109375" style="40"/>
+    <col min="14081" max="14081" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14082" max="14336" width="14.7109375" style="40"/>
+    <col min="14337" max="14337" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14338" max="14592" width="14.7109375" style="40"/>
+    <col min="14593" max="14593" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14594" max="14848" width="14.7109375" style="40"/>
+    <col min="14849" max="14849" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14850" max="15104" width="14.7109375" style="40"/>
+    <col min="15105" max="15105" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15106" max="15360" width="14.7109375" style="40"/>
+    <col min="15361" max="15361" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15362" max="15616" width="14.7109375" style="40"/>
+    <col min="15617" max="15617" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15618" max="15872" width="14.7109375" style="40"/>
+    <col min="15873" max="15873" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15874" max="16128" width="14.7109375" style="40"/>
+    <col min="16129" max="16129" width="14.7109375" style="40" customWidth="1"/>
+    <col min="16130" max="16384" width="14.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="15" customFormat="1" ht="18">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="18" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" s="22" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:34" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" s="22" customFormat="1" ht="12">
       <c r="A4" s="21" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" s="22" customFormat="1" ht="12">
       <c r="A5" s="21" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" s="22" customFormat="1" ht="12">
       <c r="A6" s="21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:34" s="27" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" s="27" customFormat="1" ht="24">
       <c r="A7" s="26" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AA7" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB7" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="AB7" s="27" t="s">
-        <v>193</v>
-      </c>
       <c r="AC7" s="27" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AE7" s="27" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AF7" s="27" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="AH7" s="27" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="29" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
     </row>
-    <row r="9" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:34" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" s="30" customFormat="1"/>
+    <row r="10" spans="1:34" s="18" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:34" s="33" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="33" customFormat="1" ht="12">
       <c r="A11" s="32"/>
     </row>
-    <row r="12" spans="1:34" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" s="80" customFormat="1">
       <c r="A12" s="81" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F12" s="90">
         <v>43831</v>
@@ -58862,18 +58858,18 @@
       </c>
       <c r="J12" s="90"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34">
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34">
       <c r="A14" s="40" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E14" s="83">
         <v>45307</v>
@@ -58892,15 +58888,15 @@
       </c>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34">
       <c r="A15" s="40" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E15" s="83">
         <v>45307</v>
@@ -58919,15 +58915,15 @@
       </c>
       <c r="J15" s="42"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34">
       <c r="A16" s="40" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E16" s="83">
         <v>45296</v>
@@ -58946,15 +58942,15 @@
       </c>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="40" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E17" s="83">
         <v>45296</v>
@@ -58973,12 +58969,12 @@
       </c>
       <c r="J17" s="42"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="40" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E18" s="83">
         <v>45296</v>
@@ -58997,15 +58993,15 @@
       </c>
       <c r="J18" s="43"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="40" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E19" s="83">
         <v>45036</v>
@@ -59024,15 +59020,15 @@
       </c>
       <c r="J19" s="43"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="40" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E20" s="83">
         <v>45036</v>
@@ -59051,15 +59047,15 @@
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="40" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E21" s="83">
         <v>45036</v>
@@ -59078,15 +59074,15 @@
       </c>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="40" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E22" s="83">
         <v>45036</v>
@@ -59105,15 +59101,15 @@
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="40" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E23" s="83">
         <v>45296</v>
@@ -59132,15 +59128,15 @@
       </c>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="40" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E24" s="83">
         <v>45019</v>
@@ -59159,15 +59155,15 @@
       </c>
       <c r="J24" s="42"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="40" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E25" s="83">
         <v>45296</v>
@@ -59186,15 +59182,15 @@
       </c>
       <c r="J25" s="42"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="40" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E26" s="83">
         <v>45296</v>
@@ -59213,15 +59209,15 @@
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="40" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E27" s="83">
         <v>45296</v>
@@ -59240,15 +59236,15 @@
       </c>
       <c r="J27" s="42"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="40" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E28" s="83">
         <v>45296</v>
@@ -59267,12 +59263,12 @@
       </c>
       <c r="J28" s="42"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="40" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E29" s="83">
         <v>45296</v>
@@ -59291,15 +59287,15 @@
       </c>
       <c r="J29" s="43"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="40" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E30" s="83">
         <v>45267</v>
@@ -59318,15 +59314,15 @@
       </c>
       <c r="J30" s="42"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="40" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E31" s="83">
         <v>45296</v>
@@ -59345,15 +59341,15 @@
       </c>
       <c r="J31" s="42"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="40" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E32" s="83">
         <v>45296</v>
@@ -59372,15 +59368,15 @@
       </c>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="40" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E33" s="83">
         <v>45022</v>
@@ -59399,12 +59395,12 @@
       </c>
       <c r="J33" s="42"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="40" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E34" s="83">
         <v>45099</v>
@@ -59423,12 +59419,12 @@
       </c>
       <c r="J34" s="165"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="40" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E35" s="83">
         <v>43217</v>
@@ -59447,15 +59443,15 @@
       </c>
       <c r="J35" s="42"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="40" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E36" s="83">
         <v>45307</v>
@@ -59474,15 +59470,15 @@
       </c>
       <c r="J36" s="43"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="40" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E37" s="83">
         <v>44964</v>
@@ -59501,15 +59497,15 @@
       </c>
       <c r="J37" s="43"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="40" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E38" s="83">
         <v>45296</v>
@@ -59528,15 +59524,15 @@
       </c>
       <c r="J38" s="43"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="40" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C39" s="189">
         <v>0</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E39" s="83">
         <v>45296</v>
@@ -59555,15 +59551,15 @@
       </c>
       <c r="J39" s="42"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="40" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E40" s="83">
         <v>45296</v>
@@ -59582,15 +59578,15 @@
       </c>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="40" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E41" s="83">
         <v>45064</v>
@@ -59609,15 +59605,15 @@
       </c>
       <c r="J41" s="42"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="40" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E42" s="83">
         <v>45062</v>
@@ -59636,12 +59632,12 @@
       </c>
       <c r="J42" s="42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="40" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E43" s="83">
         <v>43469</v>
@@ -59660,12 +59656,12 @@
       </c>
       <c r="J43" s="43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="40" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E44" s="83">
         <v>43469</v>
@@ -59684,15 +59680,15 @@
       </c>
       <c r="J44" s="43"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="40" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E45" s="83">
         <v>44964</v>
@@ -59711,15 +59707,15 @@
       </c>
       <c r="J45" s="43"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="40" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E46" s="83">
         <v>45299</v>
@@ -59738,667 +59734,667 @@
       </c>
       <c r="J46" s="42"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="E47" s="83"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="E48" s="83"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:5">
       <c r="E49" s="83"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:5">
       <c r="E50" s="83"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:5">
       <c r="E51" s="83"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:5">
       <c r="E52" s="83"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:5">
       <c r="E53" s="83"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:5">
       <c r="E54" s="83"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:5">
       <c r="E55" s="83"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:5">
       <c r="E56" s="83"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:5">
       <c r="E57" s="83"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:5">
       <c r="E58" s="83"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:5">
       <c r="E59" s="83"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:5">
       <c r="E60" s="83"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:5">
       <c r="E61" s="83"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:5">
       <c r="E62" s="83"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:5">
       <c r="E63" s="83"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="5:5">
       <c r="E64" s="83"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:5">
       <c r="E65" s="83"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:5">
       <c r="E66" s="83"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:5">
       <c r="E67" s="83"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:5">
       <c r="E68" s="83"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:5">
       <c r="E69" s="83"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:5">
       <c r="E70" s="83"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:5">
       <c r="E71" s="83"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:5">
       <c r="E72" s="83"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:5">
       <c r="E73" s="83"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="5:5">
       <c r="E74" s="83"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="5:5">
       <c r="E75" s="83"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="5:5">
       <c r="E76" s="83"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:5">
       <c r="E77" s="83"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:5">
       <c r="E78" s="83"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="5:5">
       <c r="E79" s="83"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:5">
       <c r="E80" s="83"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:5">
       <c r="E81" s="83"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:5">
       <c r="E82" s="83"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:5">
       <c r="E83" s="83"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:5">
       <c r="E84" s="83"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:5">
       <c r="E85" s="83"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="5:5">
       <c r="E86" s="83"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="5:5">
       <c r="E87" s="83"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="5:5">
       <c r="E88" s="83"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="5:5">
       <c r="E89" s="83"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:5">
       <c r="E90" s="83"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="5:5">
       <c r="E91" s="83"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="5:5">
       <c r="E92" s="83"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:5">
       <c r="E93" s="83"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="5:5">
       <c r="E94" s="83"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="5:5">
       <c r="E95" s="83"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="5:5">
       <c r="E96" s="83"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:5">
       <c r="E97" s="83"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:5">
       <c r="E98" s="83"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:5">
       <c r="E99" s="83"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:5">
       <c r="E100" s="83"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="5:5">
       <c r="E101" s="83"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="5:5">
       <c r="E102" s="83"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="5:5">
       <c r="E103" s="83"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="5:5">
       <c r="E104" s="83"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="5:5">
       <c r="E105" s="83"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:5">
       <c r="E106" s="83"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:5">
       <c r="E107" s="83"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="5:5">
       <c r="E108" s="83"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="5:5">
       <c r="E109" s="83"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:5">
       <c r="E110" s="83"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="5:5">
       <c r="E111" s="83"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="5:5">
       <c r="E112" s="83"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="5:5">
       <c r="E113" s="83"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="5:5">
       <c r="E114" s="83"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:5">
       <c r="E115" s="83"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:5">
       <c r="E116" s="83"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:5">
       <c r="E117" s="83"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="5:5">
       <c r="E118" s="83"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="5:5">
       <c r="E119" s="83"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="5:5">
       <c r="E120" s="83"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="5:5">
       <c r="E121" s="83"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="5:5">
       <c r="E122" s="83"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="5:5">
       <c r="E123" s="83"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="5:5">
       <c r="E124" s="83"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="5:5">
       <c r="E125" s="83"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="5:5">
       <c r="E126" s="83"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="5:5">
       <c r="E127" s="83"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="5:5">
       <c r="E128" s="83"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="5:5">
       <c r="E129" s="83"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="5:5">
       <c r="E130" s="83"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="5:5">
       <c r="E131" s="83"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="5:5">
       <c r="E132" s="83"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="5:5">
       <c r="E133" s="83"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="5:5">
       <c r="E134" s="83"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="5:5">
       <c r="E135" s="83"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="5:5">
       <c r="E136" s="83"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="5:5">
       <c r="E137" s="83"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="5:5">
       <c r="E138" s="83"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="5:5">
       <c r="E139" s="83"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="5:5">
       <c r="E140" s="83"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="5:5">
       <c r="E141" s="83"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="5:5">
       <c r="E142" s="83"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="5:5">
       <c r="E143" s="83"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="5:5">
       <c r="E144" s="83"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="5:5">
       <c r="E145" s="83"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="5:5">
       <c r="E146" s="83"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="5:5">
       <c r="E147" s="83"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="5:5">
       <c r="E148" s="83"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="5:5">
       <c r="E149" s="83"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="5:5">
       <c r="E150" s="83"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="5:5">
       <c r="E151" s="83"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="5:5">
       <c r="E152" s="83"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="5:5">
       <c r="E153" s="83"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="5:5">
       <c r="E154" s="83"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="5:5">
       <c r="E155" s="83"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="5:5">
       <c r="E156" s="83"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="5:5">
       <c r="E157" s="83"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="5:5">
       <c r="E158" s="83"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="5:5">
       <c r="E159" s="83"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="5:5">
       <c r="E160" s="83"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="5:5">
       <c r="E161" s="83"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="5:5">
       <c r="E162" s="83"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="5:5">
       <c r="E163" s="83"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="5:5">
       <c r="E164" s="83"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="5:5">
       <c r="E165" s="83"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="5:5">
       <c r="E166" s="83"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="5:5">
       <c r="E167" s="83"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="5:5">
       <c r="E168" s="83"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="5:5">
       <c r="E169" s="83"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="5:5">
       <c r="E170" s="83"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="5:5">
       <c r="E171" s="83"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="5:5">
       <c r="E172" s="83"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="5:5">
       <c r="E173" s="83"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="5:5">
       <c r="E174" s="83"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="5:5">
       <c r="E175" s="83"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="5:5">
       <c r="E176" s="83"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="5:5">
       <c r="E177" s="83"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="5:5">
       <c r="E178" s="83"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="5:5">
       <c r="E179" s="83"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="5:5">
       <c r="E180" s="83"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="5:5">
       <c r="E181" s="83"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="5:5">
       <c r="E182" s="83"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="5:5">
       <c r="E183" s="83"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="5:5">
       <c r="E184" s="83"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="5:5">
       <c r="E185" s="83"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="5:5">
       <c r="E186" s="83"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="5:5">
       <c r="E187" s="83"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="5:5">
       <c r="E188" s="83"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="5:5">
       <c r="E189" s="83"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="5:5">
       <c r="E190" s="83"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="5:5">
       <c r="E191" s="83"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="5:5">
       <c r="E192" s="83"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="5:5">
       <c r="E193" s="83"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="5:5">
       <c r="E194" s="83"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="5:5">
       <c r="E195" s="83"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="5:5">
       <c r="E196" s="83"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="5:5">
       <c r="E197" s="83"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="5:5">
       <c r="E198" s="83"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="5:5">
       <c r="E199" s="83"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="5:5">
       <c r="E200" s="83"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="5:5">
       <c r="E201" s="83"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="5:5">
       <c r="E202" s="83"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="5:5">
       <c r="E203" s="83"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="5:5">
       <c r="E204" s="83"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="5:5">
       <c r="E205" s="83"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="5:5">
       <c r="E206" s="83"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="5:5">
       <c r="E207" s="83"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="5:5">
       <c r="E208" s="83"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="5:5">
       <c r="E209" s="83"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="5:5">
       <c r="E210" s="83"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="5:5">
       <c r="E211" s="83"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="5:5">
       <c r="E212" s="83"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="5:5">
       <c r="E213" s="83"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="5:5">
       <c r="E214" s="83"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="5:5">
       <c r="E215" s="83"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="5:5">
       <c r="E216" s="83"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="5:5">
       <c r="E217" s="83"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="5:5">
       <c r="E218" s="83"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="5:5">
       <c r="E219" s="83"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="5:5">
       <c r="E220" s="83"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="5:5">
       <c r="E221" s="83"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="5:5">
       <c r="E222" s="83"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="5:5">
       <c r="E223" s="83"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="5:5">
       <c r="E224" s="83"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="5:5">
       <c r="E225" s="83"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="5:5">
       <c r="E226" s="83"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="5:5">
       <c r="E227" s="83"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="5:5">
       <c r="E228" s="83"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="5:5">
       <c r="E229" s="83"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="5:5">
       <c r="E230" s="83"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="5:5">
       <c r="E231" s="83"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="5:5">
       <c r="E232" s="83"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="5:5">
       <c r="E233" s="83"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="5:5">
       <c r="E234" s="83"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="5:5">
       <c r="E235" s="83"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="5:5">
       <c r="E236" s="83"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="5:5">
       <c r="E237" s="83"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="5:5">
       <c r="E238" s="83"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="5:5">
       <c r="E239" s="83"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="5:5">
       <c r="E240" s="83"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="5:5">
       <c r="E241" s="83"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="5:5">
       <c r="E242" s="83"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="5:5">
       <c r="E243" s="83"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="5:5">
       <c r="E244" s="83"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="5:5">
       <c r="E245" s="83"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="5:5">
       <c r="E246" s="83"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="5:5">
       <c r="E247" s="83"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="5:5">
       <c r="E248" s="83"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="5:5">
       <c r="E249" s="83"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="5:5">
       <c r="E250" s="83"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="5:5">
       <c r="E251" s="83"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="5:5">
       <c r="E252" s="83"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="5:5">
       <c r="E253" s="83"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="5:5">
       <c r="E254" s="83"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="5:5">
       <c r="E255" s="83"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="5:5">
       <c r="E256" s="83"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="5:5">
       <c r="E257" s="83"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="5:5">
       <c r="E258" s="83"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="5:5">
       <c r="E259" s="83"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="5:5">
       <c r="E260" s="83"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="5:5">
       <c r="E261" s="83"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="5:5">
       <c r="E262" s="83"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="5:5">
       <c r="E263" s="83"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="5:5">
       <c r="E264" s="83"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="5:5">
       <c r="E265" s="83"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="5:5">
       <c r="E266" s="83"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="5:5">
       <c r="E267" s="83"/>
     </row>
   </sheetData>
@@ -60478,315 +60474,315 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="143" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" s="143" customFormat="1" ht="165" customHeight="1">
       <c r="B1" s="143" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="F1" s="143" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="H1" s="143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="143" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="L1" s="143" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="N1" s="143" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="P1" s="143" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="R1" s="143" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="T1" s="143" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="V1" s="143" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="X1" s="143" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="Z1" s="143" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="AB1" s="143" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AD1" s="143" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="AF1" s="143" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AH1" s="143" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="AJ1" s="143" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AL1" s="143" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="AN1" s="143" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AP1" s="143" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="AR1" s="143" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AT1" s="143" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AV1" s="143" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="AX1" s="143" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="AZ1" s="143" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="BB1" s="143" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="BD1" s="143" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="BF1" s="143" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="BH1" s="143" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="BJ1" s="143" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="BL1" s="143" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="BN1" s="143" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AD2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AF2" s="87" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="AG2" s="87"/>
       <c r="AH2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AL2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AN2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" t="s">
+        <v>116</v>
+      </c>
+      <c r="T3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="X3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT3" t="s">
         <v>130</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AV3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX3" t="s">
         <v>132</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ3" t="s">
         <v>133</v>
       </c>
-      <c r="AT2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="BB3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF3" t="s">
         <v>136</v>
       </c>
-      <c r="AX2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>146</v>
+      <c r="BH3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67">
       <c r="A4" s="142">
         <v>42736</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C4" s="86">
         <f>VLOOKUP($A16,dXdata!DATA,MATCH(B$3,dXdata!IDS,0) + 1,FALSE)</f>
@@ -61049,7 +61045,7 @@
         <v>192.50134502</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67">
       <c r="A5" s="142">
         <v>42767</v>
       </c>
@@ -61318,7 +61314,7 @@
         <v>339.76638167999999</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67">
       <c r="A6" s="142">
         <v>42795</v>
       </c>
@@ -61587,7 +61583,7 @@
         <v>440.72041249999978</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67">
       <c r="A7" s="142">
         <v>42826</v>
       </c>
@@ -61801,7 +61797,7 @@
         <v>262.26815905999996</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67">
       <c r="A8" s="142">
         <v>42856</v>
       </c>
@@ -62015,7 +62011,7 @@
         <v>377.82733134999995</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67">
       <c r="A9" s="142">
         <v>42887</v>
       </c>
@@ -62229,7 +62225,7 @@
         <v>328.10005632999997</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67">
       <c r="A10" s="142">
         <v>42917</v>
       </c>
@@ -62443,7 +62439,7 @@
         <v>291.66943687999998</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67">
       <c r="A11" s="142">
         <v>42948</v>
       </c>
@@ -62657,7 +62653,7 @@
         <v>338.38902560000002</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67">
       <c r="A12" s="142">
         <v>42979</v>
       </c>
@@ -62871,7 +62867,7 @@
         <v>1160.66917592</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67">
       <c r="A13" s="142">
         <v>43009</v>
       </c>
@@ -63085,7 +63081,7 @@
         <v>337.90144084000002</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67">
       <c r="A14" s="142">
         <v>43040</v>
       </c>
@@ -63299,7 +63295,7 @@
         <v>377.48615973</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67">
       <c r="A15" s="142">
         <v>43070</v>
       </c>
@@ -63513,7 +63509,7 @@
         <v>296.04393754</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67">
       <c r="A16" s="44">
         <v>43101</v>
       </c>
@@ -63550,7 +63546,7 @@
       <c r="BK16" s="46"/>
       <c r="BM16" s="46"/>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65">
       <c r="A17" s="44">
         <v>43132</v>
       </c>
@@ -63587,7 +63583,7 @@
       <c r="BK17" s="46"/>
       <c r="BM17" s="46"/>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65">
       <c r="A18" s="44">
         <v>43160</v>
       </c>
@@ -63624,7 +63620,7 @@
       <c r="BK18" s="46"/>
       <c r="BM18" s="46"/>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65">
       <c r="A19" s="44">
         <v>43191</v>
       </c>
@@ -63634,7 +63630,7 @@
       </c>
       <c r="C19" s="86"/>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65">
       <c r="A20" s="44">
         <v>43221</v>
       </c>
@@ -63644,7 +63640,7 @@
       </c>
       <c r="C20" s="86"/>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65">
       <c r="A21" s="44">
         <v>43252</v>
       </c>
@@ -63654,7 +63650,7 @@
       </c>
       <c r="C21" s="86"/>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65">
       <c r="A22" s="44">
         <v>43282</v>
       </c>
@@ -63664,7 +63660,7 @@
       </c>
       <c r="C22" s="86"/>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65">
       <c r="A23" s="44">
         <v>43313</v>
       </c>
@@ -63674,7 +63670,7 @@
       </c>
       <c r="C23" s="86"/>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65">
       <c r="A24" s="44">
         <v>43344</v>
       </c>
@@ -63684,7 +63680,7 @@
       </c>
       <c r="C24" s="86"/>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65">
       <c r="A25" s="44">
         <v>43374</v>
       </c>
@@ -63694,7 +63690,7 @@
       </c>
       <c r="C25" s="86"/>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65">
       <c r="A26" s="44">
         <v>43405</v>
       </c>
@@ -63704,7 +63700,7 @@
       </c>
       <c r="C26" s="86"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65">
       <c r="A27" s="44">
         <v>43435</v>
       </c>
@@ -63714,7 +63710,7 @@
       </c>
       <c r="C27" s="86"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65">
       <c r="A28" s="44">
         <v>43466</v>
       </c>
@@ -63738,612 +63734,612 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2" max="256" width="14.6640625" style="40"/>
-    <col min="257" max="257" width="14.6640625" style="40" customWidth="1"/>
-    <col min="258" max="512" width="14.6640625" style="40"/>
-    <col min="513" max="513" width="14.6640625" style="40" customWidth="1"/>
-    <col min="514" max="768" width="14.6640625" style="40"/>
-    <col min="769" max="769" width="14.6640625" style="40" customWidth="1"/>
-    <col min="770" max="1024" width="14.6640625" style="40"/>
-    <col min="1025" max="1025" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1026" max="1280" width="14.6640625" style="40"/>
-    <col min="1281" max="1281" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1282" max="1536" width="14.6640625" style="40"/>
-    <col min="1537" max="1537" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1538" max="1792" width="14.6640625" style="40"/>
-    <col min="1793" max="1793" width="14.6640625" style="40" customWidth="1"/>
-    <col min="1794" max="2048" width="14.6640625" style="40"/>
-    <col min="2049" max="2049" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2050" max="2304" width="14.6640625" style="40"/>
-    <col min="2305" max="2305" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2306" max="2560" width="14.6640625" style="40"/>
-    <col min="2561" max="2561" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2562" max="2816" width="14.6640625" style="40"/>
-    <col min="2817" max="2817" width="14.6640625" style="40" customWidth="1"/>
-    <col min="2818" max="3072" width="14.6640625" style="40"/>
-    <col min="3073" max="3073" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3074" max="3328" width="14.6640625" style="40"/>
-    <col min="3329" max="3329" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3330" max="3584" width="14.6640625" style="40"/>
-    <col min="3585" max="3585" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3586" max="3840" width="14.6640625" style="40"/>
-    <col min="3841" max="3841" width="14.6640625" style="40" customWidth="1"/>
-    <col min="3842" max="4096" width="14.6640625" style="40"/>
-    <col min="4097" max="4097" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4098" max="4352" width="14.6640625" style="40"/>
-    <col min="4353" max="4353" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4354" max="4608" width="14.6640625" style="40"/>
-    <col min="4609" max="4609" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4610" max="4864" width="14.6640625" style="40"/>
-    <col min="4865" max="4865" width="14.6640625" style="40" customWidth="1"/>
-    <col min="4866" max="5120" width="14.6640625" style="40"/>
-    <col min="5121" max="5121" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5122" max="5376" width="14.6640625" style="40"/>
-    <col min="5377" max="5377" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5378" max="5632" width="14.6640625" style="40"/>
-    <col min="5633" max="5633" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5634" max="5888" width="14.6640625" style="40"/>
-    <col min="5889" max="5889" width="14.6640625" style="40" customWidth="1"/>
-    <col min="5890" max="6144" width="14.6640625" style="40"/>
-    <col min="6145" max="6145" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6146" max="6400" width="14.6640625" style="40"/>
-    <col min="6401" max="6401" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6402" max="6656" width="14.6640625" style="40"/>
-    <col min="6657" max="6657" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6658" max="6912" width="14.6640625" style="40"/>
-    <col min="6913" max="6913" width="14.6640625" style="40" customWidth="1"/>
-    <col min="6914" max="7168" width="14.6640625" style="40"/>
-    <col min="7169" max="7169" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7170" max="7424" width="14.6640625" style="40"/>
-    <col min="7425" max="7425" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7426" max="7680" width="14.6640625" style="40"/>
-    <col min="7681" max="7681" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7682" max="7936" width="14.6640625" style="40"/>
-    <col min="7937" max="7937" width="14.6640625" style="40" customWidth="1"/>
-    <col min="7938" max="8192" width="14.6640625" style="40"/>
-    <col min="8193" max="8193" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8194" max="8448" width="14.6640625" style="40"/>
-    <col min="8449" max="8449" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8450" max="8704" width="14.6640625" style="40"/>
-    <col min="8705" max="8705" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8706" max="8960" width="14.6640625" style="40"/>
-    <col min="8961" max="8961" width="14.6640625" style="40" customWidth="1"/>
-    <col min="8962" max="9216" width="14.6640625" style="40"/>
-    <col min="9217" max="9217" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9218" max="9472" width="14.6640625" style="40"/>
-    <col min="9473" max="9473" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9474" max="9728" width="14.6640625" style="40"/>
-    <col min="9729" max="9729" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9730" max="9984" width="14.6640625" style="40"/>
-    <col min="9985" max="9985" width="14.6640625" style="40" customWidth="1"/>
-    <col min="9986" max="10240" width="14.6640625" style="40"/>
-    <col min="10241" max="10241" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10242" max="10496" width="14.6640625" style="40"/>
-    <col min="10497" max="10497" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10498" max="10752" width="14.6640625" style="40"/>
-    <col min="10753" max="10753" width="14.6640625" style="40" customWidth="1"/>
-    <col min="10754" max="11008" width="14.6640625" style="40"/>
-    <col min="11009" max="11009" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11010" max="11264" width="14.6640625" style="40"/>
-    <col min="11265" max="11265" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11266" max="11520" width="14.6640625" style="40"/>
-    <col min="11521" max="11521" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11522" max="11776" width="14.6640625" style="40"/>
-    <col min="11777" max="11777" width="14.6640625" style="40" customWidth="1"/>
-    <col min="11778" max="12032" width="14.6640625" style="40"/>
-    <col min="12033" max="12033" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12034" max="12288" width="14.6640625" style="40"/>
-    <col min="12289" max="12289" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12290" max="12544" width="14.6640625" style="40"/>
-    <col min="12545" max="12545" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12546" max="12800" width="14.6640625" style="40"/>
-    <col min="12801" max="12801" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12802" max="13056" width="14.6640625" style="40"/>
-    <col min="13057" max="13057" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13058" max="13312" width="14.6640625" style="40"/>
-    <col min="13313" max="13313" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13314" max="13568" width="14.6640625" style="40"/>
-    <col min="13569" max="13569" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13570" max="13824" width="14.6640625" style="40"/>
-    <col min="13825" max="13825" width="14.6640625" style="40" customWidth="1"/>
-    <col min="13826" max="14080" width="14.6640625" style="40"/>
-    <col min="14081" max="14081" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14082" max="14336" width="14.6640625" style="40"/>
-    <col min="14337" max="14337" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14338" max="14592" width="14.6640625" style="40"/>
-    <col min="14593" max="14593" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14594" max="14848" width="14.6640625" style="40"/>
-    <col min="14849" max="14849" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14850" max="15104" width="14.6640625" style="40"/>
-    <col min="15105" max="15105" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15106" max="15360" width="14.6640625" style="40"/>
-    <col min="15361" max="15361" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15362" max="15616" width="14.6640625" style="40"/>
-    <col min="15617" max="15617" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15618" max="15872" width="14.6640625" style="40"/>
-    <col min="15873" max="15873" width="14.6640625" style="40" customWidth="1"/>
-    <col min="15874" max="16128" width="14.6640625" style="40"/>
-    <col min="16129" max="16129" width="14.6640625" style="40" customWidth="1"/>
-    <col min="16130" max="16384" width="14.6640625" style="40"/>
+    <col min="1" max="1" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2" max="256" width="14.7109375" style="40"/>
+    <col min="257" max="257" width="14.7109375" style="40" customWidth="1"/>
+    <col min="258" max="512" width="14.7109375" style="40"/>
+    <col min="513" max="513" width="14.7109375" style="40" customWidth="1"/>
+    <col min="514" max="768" width="14.7109375" style="40"/>
+    <col min="769" max="769" width="14.7109375" style="40" customWidth="1"/>
+    <col min="770" max="1024" width="14.7109375" style="40"/>
+    <col min="1025" max="1025" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1026" max="1280" width="14.7109375" style="40"/>
+    <col min="1281" max="1281" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1282" max="1536" width="14.7109375" style="40"/>
+    <col min="1537" max="1537" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1538" max="1792" width="14.7109375" style="40"/>
+    <col min="1793" max="1793" width="14.7109375" style="40" customWidth="1"/>
+    <col min="1794" max="2048" width="14.7109375" style="40"/>
+    <col min="2049" max="2049" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2050" max="2304" width="14.7109375" style="40"/>
+    <col min="2305" max="2305" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2306" max="2560" width="14.7109375" style="40"/>
+    <col min="2561" max="2561" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2562" max="2816" width="14.7109375" style="40"/>
+    <col min="2817" max="2817" width="14.7109375" style="40" customWidth="1"/>
+    <col min="2818" max="3072" width="14.7109375" style="40"/>
+    <col min="3073" max="3073" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3074" max="3328" width="14.7109375" style="40"/>
+    <col min="3329" max="3329" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3330" max="3584" width="14.7109375" style="40"/>
+    <col min="3585" max="3585" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3586" max="3840" width="14.7109375" style="40"/>
+    <col min="3841" max="3841" width="14.7109375" style="40" customWidth="1"/>
+    <col min="3842" max="4096" width="14.7109375" style="40"/>
+    <col min="4097" max="4097" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4098" max="4352" width="14.7109375" style="40"/>
+    <col min="4353" max="4353" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4354" max="4608" width="14.7109375" style="40"/>
+    <col min="4609" max="4609" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4610" max="4864" width="14.7109375" style="40"/>
+    <col min="4865" max="4865" width="14.7109375" style="40" customWidth="1"/>
+    <col min="4866" max="5120" width="14.7109375" style="40"/>
+    <col min="5121" max="5121" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5122" max="5376" width="14.7109375" style="40"/>
+    <col min="5377" max="5377" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5378" max="5632" width="14.7109375" style="40"/>
+    <col min="5633" max="5633" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5634" max="5888" width="14.7109375" style="40"/>
+    <col min="5889" max="5889" width="14.7109375" style="40" customWidth="1"/>
+    <col min="5890" max="6144" width="14.7109375" style="40"/>
+    <col min="6145" max="6145" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6146" max="6400" width="14.7109375" style="40"/>
+    <col min="6401" max="6401" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6402" max="6656" width="14.7109375" style="40"/>
+    <col min="6657" max="6657" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6658" max="6912" width="14.7109375" style="40"/>
+    <col min="6913" max="6913" width="14.7109375" style="40" customWidth="1"/>
+    <col min="6914" max="7168" width="14.7109375" style="40"/>
+    <col min="7169" max="7169" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7170" max="7424" width="14.7109375" style="40"/>
+    <col min="7425" max="7425" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7426" max="7680" width="14.7109375" style="40"/>
+    <col min="7681" max="7681" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7682" max="7936" width="14.7109375" style="40"/>
+    <col min="7937" max="7937" width="14.7109375" style="40" customWidth="1"/>
+    <col min="7938" max="8192" width="14.7109375" style="40"/>
+    <col min="8193" max="8193" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8194" max="8448" width="14.7109375" style="40"/>
+    <col min="8449" max="8449" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8450" max="8704" width="14.7109375" style="40"/>
+    <col min="8705" max="8705" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8706" max="8960" width="14.7109375" style="40"/>
+    <col min="8961" max="8961" width="14.7109375" style="40" customWidth="1"/>
+    <col min="8962" max="9216" width="14.7109375" style="40"/>
+    <col min="9217" max="9217" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9218" max="9472" width="14.7109375" style="40"/>
+    <col min="9473" max="9473" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9474" max="9728" width="14.7109375" style="40"/>
+    <col min="9729" max="9729" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9730" max="9984" width="14.7109375" style="40"/>
+    <col min="9985" max="9985" width="14.7109375" style="40" customWidth="1"/>
+    <col min="9986" max="10240" width="14.7109375" style="40"/>
+    <col min="10241" max="10241" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10242" max="10496" width="14.7109375" style="40"/>
+    <col min="10497" max="10497" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10498" max="10752" width="14.7109375" style="40"/>
+    <col min="10753" max="10753" width="14.7109375" style="40" customWidth="1"/>
+    <col min="10754" max="11008" width="14.7109375" style="40"/>
+    <col min="11009" max="11009" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11010" max="11264" width="14.7109375" style="40"/>
+    <col min="11265" max="11265" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11266" max="11520" width="14.7109375" style="40"/>
+    <col min="11521" max="11521" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11522" max="11776" width="14.7109375" style="40"/>
+    <col min="11777" max="11777" width="14.7109375" style="40" customWidth="1"/>
+    <col min="11778" max="12032" width="14.7109375" style="40"/>
+    <col min="12033" max="12033" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12034" max="12288" width="14.7109375" style="40"/>
+    <col min="12289" max="12289" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12290" max="12544" width="14.7109375" style="40"/>
+    <col min="12545" max="12545" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12546" max="12800" width="14.7109375" style="40"/>
+    <col min="12801" max="12801" width="14.7109375" style="40" customWidth="1"/>
+    <col min="12802" max="13056" width="14.7109375" style="40"/>
+    <col min="13057" max="13057" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13058" max="13312" width="14.7109375" style="40"/>
+    <col min="13313" max="13313" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13314" max="13568" width="14.7109375" style="40"/>
+    <col min="13569" max="13569" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13570" max="13824" width="14.7109375" style="40"/>
+    <col min="13825" max="13825" width="14.7109375" style="40" customWidth="1"/>
+    <col min="13826" max="14080" width="14.7109375" style="40"/>
+    <col min="14081" max="14081" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14082" max="14336" width="14.7109375" style="40"/>
+    <col min="14337" max="14337" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14338" max="14592" width="14.7109375" style="40"/>
+    <col min="14593" max="14593" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14594" max="14848" width="14.7109375" style="40"/>
+    <col min="14849" max="14849" width="14.7109375" style="40" customWidth="1"/>
+    <col min="14850" max="15104" width="14.7109375" style="40"/>
+    <col min="15105" max="15105" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15106" max="15360" width="14.7109375" style="40"/>
+    <col min="15361" max="15361" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15362" max="15616" width="14.7109375" style="40"/>
+    <col min="15617" max="15617" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15618" max="15872" width="14.7109375" style="40"/>
+    <col min="15873" max="15873" width="14.7109375" style="40" customWidth="1"/>
+    <col min="15874" max="16128" width="14.7109375" style="40"/>
+    <col min="16129" max="16129" width="14.7109375" style="40" customWidth="1"/>
+    <col min="16130" max="16384" width="14.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="15" customFormat="1" ht="18">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="18" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" s="22" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:34" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" s="22" customFormat="1" ht="12">
       <c r="A4" s="21" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" s="22" customFormat="1" ht="12">
       <c r="A5" s="21" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" s="22" customFormat="1" ht="12">
       <c r="A6" s="21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" s="27" customFormat="1">
       <c r="A7" s="26" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="AA7" s="27" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="AC7" s="27" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="AE7" s="27" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="AF7" s="27" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="AH7" s="27" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="29" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
     </row>
-    <row r="9" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:34" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" s="30" customFormat="1"/>
+    <row r="10" spans="1:34" s="18" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:34" s="33" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="33" customFormat="1" ht="12">
       <c r="A11" s="32"/>
     </row>
-    <row r="12" spans="1:34" s="35" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" s="35" customFormat="1" ht="111.95">
       <c r="A12" s="34" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="W12" s="35" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="X12" s="35" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="Y12" s="35" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="Z12" s="35" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="AA12" s="35" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="AB12" s="35" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="AC12" s="35" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="AD12" s="35" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="AE12" s="35" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="AF12" s="35" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="AG12" s="35" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="AH12" s="35" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" s="37" customFormat="1">
       <c r="A13" s="36" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>11</v>
-      </c>
       <c r="G13" s="37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O13" s="37" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="47" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="W13" s="37" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="X13" s="37" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Y13" s="37" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="Z13" s="37" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="AA13" s="37" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="37" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="AC13" s="37" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AD13" s="37" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AG13" s="37" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="AH13" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="37" customFormat="1">
+      <c r="A14" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="C14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="V14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="W14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH14" s="37" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="V14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="W14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH14" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" s="39" customFormat="1">
       <c r="A15" s="38" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="B15" s="39">
         <v>45307</v>
@@ -64445,7 +64441,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34">
       <c r="A16" s="41">
         <v>42736</v>
       </c>
@@ -64549,7 +64545,7 @@
         <v>211.71463941000002</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34">
       <c r="A17" s="41">
         <v>42767</v>
       </c>
@@ -64653,7 +64649,7 @@
         <v>203.25591274999999</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34">
       <c r="A18" s="41">
         <v>42795</v>
       </c>
@@ -64757,7 +64753,7 @@
         <v>377.28521883999997</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34">
       <c r="A19" s="41">
         <v>42826</v>
       </c>
@@ -64861,7 +64857,7 @@
         <v>262.26815905999996</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34">
       <c r="A20" s="41">
         <v>42856</v>
       </c>
@@ -64965,7 +64961,7 @@
         <v>377.82733134999995</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34">
       <c r="A21" s="41">
         <v>42887</v>
       </c>
@@ -65069,7 +65065,7 @@
         <v>328.10005632999997</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34">
       <c r="A22" s="41">
         <v>42917</v>
       </c>
@@ -65173,7 +65169,7 @@
         <v>291.66943687999998</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34">
       <c r="A23" s="41">
         <v>42948</v>
       </c>
@@ -65277,7 +65273,7 @@
         <v>338.38902560000002</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34">
       <c r="A24" s="41">
         <v>42979</v>
       </c>
@@ -65381,7 +65377,7 @@
         <v>1160.66917592</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34">
       <c r="A25" s="41">
         <v>43009</v>
       </c>
@@ -65485,7 +65481,7 @@
         <v>337.90144084000002</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34">
       <c r="A26" s="41">
         <v>43040</v>
       </c>
@@ -65589,7 +65585,7 @@
         <v>377.48615973</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34">
       <c r="A27" s="41">
         <v>43070</v>
       </c>
@@ -65693,7 +65689,7 @@
         <v>296.04393754</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34">
       <c r="A28" s="41">
         <v>43101</v>
       </c>
@@ -65797,7 +65793,7 @@
         <v>192.50134502</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34">
       <c r="A29" s="41">
         <v>43132</v>
       </c>
@@ -65901,7 +65897,7 @@
         <v>339.76638167999999</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34">
       <c r="A30" s="41">
         <v>43160</v>
       </c>
@@ -66005,7 +66001,7 @@
         <v>440.72041249999978</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34">
       <c r="A31" s="41">
         <v>43191</v>
       </c>
@@ -66109,7 +66105,7 @@
         <v>438.01505121000002</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34">
       <c r="A32" s="41">
         <v>43221</v>
       </c>
@@ -66213,7 +66209,7 @@
         <v>717.83330911999997</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34">
       <c r="A33" s="41">
         <v>43252</v>
       </c>
@@ -66317,7 +66313,7 @@
         <v>394.67880638999998</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34">
       <c r="A34" s="41">
         <v>43282</v>
       </c>
@@ -66421,7 +66417,7 @@
         <v>443.75838563999997</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34">
       <c r="A35" s="41">
         <v>43313</v>
       </c>
@@ -66525,7 +66521,7 @@
         <v>350.65400500000004</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34">
       <c r="A36" s="41">
         <v>43344</v>
       </c>
@@ -66629,7 +66625,7 @@
         <v>269.08082389000015</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34">
       <c r="A37" s="41">
         <v>43374</v>
       </c>
@@ -66733,7 +66729,7 @@
         <v>331.93516801999999</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34">
       <c r="A38" s="41">
         <v>43405</v>
       </c>
@@ -66837,7 +66833,7 @@
         <v>380.14598493</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34">
       <c r="A39" s="41">
         <v>43435</v>
       </c>
@@ -66941,7 +66937,7 @@
         <v>235.75597334</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34">
       <c r="A40" s="41">
         <v>43466</v>
       </c>
@@ -67045,7 +67041,7 @@
         <v>258.26002690000001</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34">
       <c r="A41" s="41">
         <v>43497</v>
       </c>
@@ -67149,7 +67145,7 @@
         <v>356.93944166999995</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34">
       <c r="A42" s="41">
         <v>43525</v>
       </c>
@@ -67253,7 +67249,7 @@
         <v>342.73377866999999</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34">
       <c r="A43" s="41">
         <v>43556</v>
       </c>
@@ -67357,7 +67353,7 @@
         <v>375.70581040000002</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34">
       <c r="A44" s="41">
         <v>43586</v>
       </c>
@@ -67461,7 +67457,7 @@
         <v>331.36629359000011</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34">
       <c r="A45" s="41">
         <v>43617</v>
       </c>
@@ -67565,7 +67561,7 @@
         <v>365.97490530999994</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34">
       <c r="A46" s="41">
         <v>43647</v>
       </c>
@@ -67669,7 +67665,7 @@
         <v>339.88632200000006</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34">
       <c r="A47" s="41">
         <v>43678</v>
       </c>
@@ -67773,7 +67769,7 @@
         <v>349.23542468000005</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34">
       <c r="A48" s="41">
         <v>43709</v>
       </c>
@@ -67877,7 +67873,7 @@
         <v>400.27509522999998</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34">
       <c r="A49" s="41">
         <v>43739</v>
       </c>
@@ -67981,7 +67977,7 @@
         <v>464.36166708999991</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34">
       <c r="A50" s="41">
         <v>43770</v>
       </c>
@@ -68085,7 +68081,7 @@
         <v>1121.19836865</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34">
       <c r="A51" s="41">
         <v>43800</v>
       </c>
@@ -68189,7 +68185,7 @@
         <v>296.52734249999997</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34">
       <c r="A52" s="41">
         <v>43831</v>
       </c>
@@ -68293,7 +68289,7 @@
         <v>208.99793284999998</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:34">
       <c r="A53" s="41">
         <v>43862</v>
       </c>
@@ -68397,7 +68393,7 @@
         <v>334.20810939999996</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:34">
       <c r="A54" s="41">
         <v>43891</v>
       </c>
@@ -68501,7 +68497,7 @@
         <v>210.52395752999999</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34">
       <c r="A55" s="41">
         <v>43922</v>
       </c>
@@ -68605,7 +68601,7 @@
         <v>296.56930002999997</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:34">
       <c r="A56" s="41">
         <v>43952</v>
       </c>
@@ -68709,7 +68705,7 @@
         <v>233.45572200999999</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:34">
       <c r="A57" s="41">
         <v>43983</v>
       </c>
@@ -68813,7 +68809,7 @@
         <v>272.85314849000002</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:34">
       <c r="A58" s="41">
         <v>44013</v>
       </c>
@@ -68917,7 +68913,7 @@
         <v>325.00861213000002</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:34">
       <c r="A59" s="41">
         <v>44044</v>
       </c>
@@ -69021,7 +69017,7 @@
         <v>332.14780741999994</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:34">
       <c r="A60" s="41">
         <v>44075</v>
       </c>
@@ -69125,7 +69121,7 @@
         <v>321.16969549999999</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:34">
       <c r="A61" s="41">
         <v>44105</v>
       </c>
@@ -69229,7 +69225,7 @@
         <v>325.86868011999996</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:34">
       <c r="A62" s="41">
         <v>44136</v>
       </c>
@@ -69333,7 +69329,7 @@
         <v>284.78955287999997</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:34">
       <c r="A63" s="41">
         <v>44166</v>
       </c>
@@ -69437,7 +69433,7 @@
         <v>273.03934064999999</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:34">
       <c r="A64" s="41">
         <v>44197</v>
       </c>
@@ -69541,7 +69537,7 @@
         <v>294.96000552999999</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34">
       <c r="A65" s="41">
         <v>44228</v>
       </c>
@@ -69645,7 +69641,7 @@
         <v>668.3938728899999</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34">
       <c r="A66" s="41">
         <v>44256</v>
       </c>
@@ -69749,7 +69745,7 @@
         <v>424.43845229999999</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34">
       <c r="A67" s="41">
         <v>44287</v>
       </c>
@@ -69853,7 +69849,7 @@
         <v>408.52839591999992</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34">
       <c r="A68" s="41">
         <v>44317</v>
       </c>
@@ -69957,7 +69953,7 @@
         <v>455.87384696000004</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34">
       <c r="A69" s="41">
         <v>44348</v>
       </c>
@@ -70061,7 +70057,7 @@
         <v>1063.1278954700001</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34">
       <c r="A70" s="41">
         <v>44378</v>
       </c>
@@ -70165,7 +70161,7 @@
         <v>443.16093736000005</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34">
       <c r="A71" s="41">
         <v>44409</v>
       </c>
@@ -70269,7 +70265,7 @@
         <v>346.76695097000004</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34">
       <c r="A72" s="41">
         <v>44440</v>
       </c>
@@ -70373,7 +70369,7 @@
         <v>359.23431253000007</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34">
       <c r="A73" s="41">
         <v>44470</v>
       </c>
@@ -70477,7 +70473,7 @@
         <v>384.19510880000001</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34">
       <c r="A74" s="41">
         <v>44501</v>
       </c>
@@ -70581,7 +70577,7 @@
         <v>398.67840312999999</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34">
       <c r="A75" s="41">
         <v>44531</v>
       </c>
@@ -70685,7 +70681,7 @@
         <v>383.36929650999997</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34">
       <c r="A76" s="41">
         <v>44562</v>
       </c>
@@ -70789,7 +70785,7 @@
         <v>369.77095496000004</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34">
       <c r="A77" s="41">
         <v>44593</v>
       </c>
@@ -70893,7 +70889,7 @@
         <v>373.81628661999997</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34">
       <c r="A78" s="41">
         <v>44621</v>
       </c>
@@ -70997,7 +70993,7 @@
         <v>600.96315611</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34">
       <c r="A79" s="41">
         <v>44652</v>
       </c>
@@ -71101,7 +71097,7 @@
         <v>492.47682237999993</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34">
       <c r="A80" s="41">
         <v>44682</v>
       </c>
@@ -71205,7 +71201,7 @@
         <v>485.86612829000001</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:34">
       <c r="A81" s="41">
         <v>44713</v>
       </c>
@@ -71309,7 +71305,7 @@
         <v>641.0997033000001</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:34">
       <c r="A82" s="41">
         <v>44743</v>
       </c>
@@ -71413,7 +71409,7 @@
         <v>428.17535495999994</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:34">
       <c r="A83" s="41">
         <v>44774</v>
       </c>
@@ -71517,7 +71513,7 @@
         <v>627.63743900999998</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:34">
       <c r="A84" s="41">
         <v>44805</v>
       </c>
@@ -71621,7 +71617,7 @@
         <v>540.22968576999995</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:34">
       <c r="A85" s="41">
         <v>44835</v>
       </c>
@@ -71725,7 +71721,7 @@
         <v>415.55005431999996</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:34">
       <c r="A86" s="41">
         <v>44866</v>
       </c>
@@ -71829,7 +71825,7 @@
         <v>379.87125198000012</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:34">
       <c r="A87" s="41">
         <v>44896</v>
       </c>
@@ -71933,7 +71929,7 @@
         <v>346.20141651000006</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:34">
       <c r="A88" s="41">
         <v>44927</v>
       </c>
@@ -72037,7 +72033,7 @@
         <v>324.32084199000002</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:34">
       <c r="A89" s="41">
         <v>44958</v>
       </c>
@@ -72141,7 +72137,7 @@
         <v>399.24400833000004</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:34">
       <c r="A90" s="41">
         <v>44986</v>
       </c>
@@ -72245,7 +72241,7 @@
         <v>482.69527515999999</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:34">
       <c r="A91" s="41">
         <v>45017</v>
       </c>
@@ -72349,7 +72345,7 @@
         <v>523.06938797999987</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:34">
       <c r="A92" s="41">
         <v>45047</v>
       </c>
@@ -72453,7 +72449,7 @@
         <v>590.36743575000014</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:34">
       <c r="A93" s="41">
         <v>45078</v>
       </c>
@@ -72557,7 +72553,7 @@
         <v>480.22486660999994</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:34">
       <c r="A94" s="41">
         <v>45108</v>
       </c>
@@ -72661,7 +72657,7 @@
         <v>456.62722249000007</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:34">
       <c r="A95" s="41">
         <v>45139</v>
       </c>
@@ -72765,7 +72761,7 @@
         <v>773.83064619000015</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:34">
       <c r="A96" s="41">
         <v>45170</v>
       </c>
@@ -72869,7 +72865,7 @@
         <v>497.47869044000004</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:34">
       <c r="A97" s="41">
         <v>45200</v>
       </c>
@@ -72973,7 +72969,7 @@
         <v>461.06503329000009</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:34">
       <c r="A98" s="41">
         <v>45231</v>
       </c>
@@ -73077,7 +73073,7 @@
         <v>508.64365902000003</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:34">
       <c r="A99" s="41">
         <v>45261</v>
       </c>
